--- a/mod/z02_clipit_api/libraries/example_types/example_types_sv.xlsx
+++ b/mod/z02_clipit_api/libraries/example_types/example_types_sv.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pebs74\Documents\PhpstormProjects\clipit_master\mod\z02_clipit_api\libraries\reflection_palette\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="18180" yWindow="13880" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>reference</t>
   </si>
@@ -39,134 +39,98 @@
     <t>category_description</t>
   </si>
   <si>
-    <t>One term refers to multiple concepts</t>
+    <t>sv</t>
   </si>
   <si>
-    <t>One scientific term has a different meaning depending on the context it is used in. e.g. volts and voltage in Physics. Use of the term kinetic energy in both Physics and in Biology.</t>
+    <t>En term refererar till flera olika koncept</t>
   </si>
   <si>
-    <t>Terminology</t>
+    <t>Ett koncept har många vetenskapliga namn</t>
   </si>
   <si>
-    <t>Problems with use of language and scientific terms, inconsistent and overlapping terminology.</t>
+    <t>Användning av vardagliga begrepp inom vetenskapen</t>
   </si>
   <si>
-    <t>One concept has many scientific names</t>
+    <t>Obskyr vetenskaplig terminologi</t>
   </si>
   <si>
-    <t>Different terms are used to refer to the same concept. e.g. voltage is also referred to as potential difference. Confusion between voltage and charge.</t>
+    <t>Förståelse för vetenskaplig metod, process och praktik</t>
   </si>
   <si>
-    <t>Terminology</t>
+    <t>Ligger till grund för förståelse</t>
   </si>
   <si>
-    <t>Problems with use of language and scientific terms, inconsistent and overlapping terminology.</t>
+    <t>Viktiga koncept</t>
   </si>
   <si>
-    <t>Scientific use of everyday language</t>
+    <t>Svag människoliknande eller världsliknande analogi</t>
   </si>
   <si>
-    <t>Everyday terms that students reused in a scientific context, where their scientific meaning may be slightly different to that understood by students.e.g. in Physics, the “drop” part of “forward voltage drop”, "current" related to electricity and  "requency", relating to waves. Use of the word "proof" to mean evidence.</t>
+    <t xml:space="preserve">Nyckeldrag avgör grupptillhörighet </t>
   </si>
   <si>
-    <t>Terminology</t>
+    <t>Felaktigt orsaksresonemang</t>
   </si>
   <si>
-    <t>Problems with use of language and scientific terms, inconsistent and overlapping terminology.</t>
+    <t>En vetenskaplig term har olika betydelse beroende på sammanhanget den används i. T.ex. volt och spänningen i fysik. Användning av termen kinetiska energin i både fysik och biologi.</t>
   </si>
   <si>
-    <t>Obscure scientific terminology</t>
+    <t>Olika termer används för att hänvisa till samma koncept. t.ex. spänning kallas även potentialskillnad. Förvirring mellan spänning och laddning.</t>
   </si>
   <si>
-    <t>Scientific terms that are simply hard for students to remember.</t>
+    <t>Daglig term som eleverna återanvänder i ett vetenskapligt sammanhang, där deras vetenskapliga betydelse kan skilja sig något från hur det förstås av studente. Exempel från fysiken; "fall" som en del av "spänningsfall", "ström" i samband med el och "frekvens", för vågor.</t>
   </si>
   <si>
-    <t>Terminology</t>
+    <t>Vetenskaplig term som är svår för studenten att förstå</t>
   </si>
   <si>
-    <t>Problems with use of language and scientific terms, inconsistent and overlapping terminology.</t>
+    <t>Förenklad förståelse som kan behöva läras om eller revideras t.ex. att föreställa sig atomära struktur som bollar på pinnar antyder utrymme mellan atomerna. Tro att endast 50% av förälderns DNA förs vidare till ett barn. System av förkunskaper som måste ändras för att integrera ny kunskap.</t>
   </si>
   <si>
-    <t>Understanding of Scientific method, process and practice</t>
+    <t>Förståelse som studenten förväntas veta redan. t.ex. för att göra beräkningar i samband med Avogadros tal i kemi förutsätter en matematisk förståelse av tiopotenser och nyckeltal. För att lära sig mer om genetisk drift förutsätts en förståelse av det naturliga urvalet.</t>
   </si>
   <si>
-    <t>Simplistic understandings that may need to be unlearned or revised e.g. imagining atomic structure as balls on sticks suggests space between atoms. Belief that only 50% of parent DNA is passed on to a child. Previous knowledge schemes that need to be modified to integrate new knowledge.</t>
+    <t>Kompletterande begrepp som eleven behöver lära sig vid sidan av ämnet för att få känsla för den nya kunskapen. t.ex. förståelse av genetisk drift inbgeriper att lära om dess orsaker; grundareffekten och flaskhalseffekt.</t>
   </si>
   <si>
-    <t>Incomplete pre-knowledge</t>
+    <t>Människoliknande eller världen som analogi. Tittar på vetenskapliga begrepp i termer av vardagliga fenomen, t.ex. hanar av alla arter är större än honorna. Växter suger upp mat från marken igenom rötterna. Analogy baserad på metaforer som inte håller.</t>
   </si>
   <si>
-    <t>Previous understandings that need to be unlearned, modified or improved to understand the Tricky Topic</t>
+    <t>Tron att om ett villkor är uppfyllt, då är objektet automatiskt medlem i en group. En observerbar nyckelfunktion definierar medlemskap i en kategori t.ex. en till en relation mellan DNA och fysiska egenskaper. Fåglar har vingar därför är alla varelser med vingar fåglar.</t>
   </si>
   <si>
-    <t>Underpinning understandings</t>
+    <t>Resonemang som bygger på antagandet gällande mål eller syfte t.ex. fåglar har vingar så att de kan flyga. Gener stänger av i syfte att möjliggöra för en cell att utvecklas ordentligt. Ogiltigt antagande om orsak och verkan, till exempel släpp ett objekt längs en krökt bana och det kommer att fortsätta i en kurva, stenar är spetsiga så att djuren inte kommer att sitta på dem och krossa dem.</t>
   </si>
   <si>
-    <t>Understanding that the student is expected to know already. e.g. to do the calculations related to Avogadro’s number in Chemistry assumes a math understanding of powers of ten and ratios. Learning about genetic drift assumes an understanding of natural selection.</t>
+    <t>Terminologi</t>
   </si>
   <si>
-    <t>Incomplete pre-knowledge</t>
+    <t>Inkomplett förförståelse</t>
   </si>
   <si>
-    <t>Previous understandings that need to be unlearned, modified or improved to understand the Tricky Topic</t>
+    <t>Komplementära koncept</t>
   </si>
   <si>
-    <t>Essential Concepts</t>
+    <t>Intiutiv förståelse</t>
   </si>
   <si>
-    <t>Complementary concepts that the student needs to learn alongside the topic in order to make sense of the new knowledge. e.g. understanding genetic drift involves learning about its causes; founder effect and bottleneck effect.</t>
+    <t>Problem med användande av språk och vetenskaplig terminologi, inkonsekvent och överlappande terminologi.</t>
   </si>
   <si>
-    <t>Complementary concepts</t>
+    <t>Tidigare kunskaper som behöver läras om, modifieras eller förbättras för att förstå de kluriga ämnena</t>
   </si>
   <si>
-    <t>Key assumptions and knowledge that relate to the tricky topic, without which it is impossible to understand it</t>
+    <t>Viktiga antaganden och kunskaper som relaterar till det knepiga ämnet, utan vilka det är omöjligt att förstå det</t>
   </si>
   <si>
-    <t>Weak human-like or world-like analogy</t>
-  </si>
-  <si>
-    <t>Human-Like or world like analogy. Viewing scientific concepts in terms of everyday phenomena e.g. males of any species are bigger than females. Plants suck up food from soil thru roots.Analogy based on metaphor that doesn’t carry through e.g. “Stage” and “Costume” used in Sense programming.</t>
-  </si>
-  <si>
-    <t>Intuitive Beliefs</t>
-  </si>
-  <si>
-    <t>Informal, intuitive ways of thinking about the world. Strongly biased toward causal explanations</t>
-  </si>
-  <si>
-    <t>Key characteristic conveys group membership</t>
-  </si>
-  <si>
-    <t>The belief that if one condition is fulfilled, then the object is automatically a member of a groupOne unobservable core feature defines membership of a category eg: one to one relationship between DNA and physical traits. Birds have wings therefore all creatures with wings are birds.</t>
-  </si>
-  <si>
-    <t>Intuitive Beliefs</t>
-  </si>
-  <si>
-    <t>Informal, intuitive ways of thinking about the world. Strongly biased toward causal explanations</t>
-  </si>
-  <si>
-    <t>Flawed causal reasoning</t>
-  </si>
-  <si>
-    <t>Reasononing based on the assumption of goal or purpose eg birds have wings so they can fly. Genes turn off in order to enable a cell to develop properly. Inappropriate assumption of cause and effect, eg release an object along a curved path and it will continue in a curve, rocks are pointy so that animals won’t sit on them and crush them.</t>
-  </si>
-  <si>
-    <t>Intuitive Beliefs</t>
-  </si>
-  <si>
-    <t>Informal, intuitive ways of thinking about the world. Strongly biased toward causal explanations</t>
-  </si>
-  <si>
-    <t>sv</t>
+    <t>Informella, intiutiva sätt att tänka om världen. Starkt viklat mot orsaksförklaringar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,6 +147,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -210,8 +186,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -234,7 +236,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="27">
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -293,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,20 +544,20 @@
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,24 +595,24 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="36">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -605,24 +633,24 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="24">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -643,24 +671,24 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="48">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -681,24 +709,24 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="24">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -719,24 +747,24 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="48">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -757,24 +785,24 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="48">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
+      <c r="F7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -795,21 +823,21 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="36">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>33</v>
@@ -833,24 +861,24 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="36">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
+      <c r="F9" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -871,24 +899,24 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="48">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -909,24 +937,24 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="60">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -947,7 +975,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -973,7 +1001,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -999,7 +1027,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1025,7 +1053,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1051,7 +1079,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1077,7 +1105,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1103,7 +1131,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1129,7 +1157,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1155,7 +1183,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1181,7 +1209,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1207,7 +1235,7 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1233,7 +1261,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1259,7 +1287,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1285,7 +1313,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1311,7 +1339,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1337,7 +1365,7 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1363,7 +1391,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1389,7 +1417,7 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1415,7 +1443,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1441,7 +1469,7 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1467,7 +1495,7 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1493,7 +1521,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1519,7 +1547,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1545,7 +1573,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1571,7 +1599,7 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1597,7 +1625,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1623,7 +1651,7 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1649,7 +1677,7 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1675,7 +1703,7 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1701,7 +1729,7 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1727,7 +1755,7 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1753,7 +1781,7 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1779,7 +1807,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1805,7 +1833,7 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1831,7 +1859,7 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1857,7 +1885,7 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1883,7 +1911,7 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1909,7 +1937,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1935,7 +1963,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1961,7 +1989,7 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1987,7 +2015,7 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2013,7 +2041,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2039,7 +2067,7 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2065,7 +2093,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2091,7 +2119,7 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2117,7 +2145,7 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2143,7 +2171,7 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2169,7 +2197,7 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2195,7 +2223,7 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2221,7 +2249,7 @@
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2247,7 +2275,7 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2273,7 +2301,7 @@
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2299,7 +2327,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2325,7 +2353,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2351,7 +2379,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2377,7 +2405,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2403,7 +2431,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2429,7 +2457,7 @@
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2455,7 +2483,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2481,7 +2509,7 @@
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2507,7 +2535,7 @@
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2533,7 +2561,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2559,7 +2587,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2585,7 +2613,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2611,7 +2639,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2637,7 +2665,7 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2663,7 +2691,7 @@
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2689,7 +2717,7 @@
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2715,7 +2743,7 @@
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2741,7 +2769,7 @@
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2767,7 +2795,7 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2793,7 +2821,7 @@
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2819,7 +2847,7 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2845,7 +2873,7 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2871,7 +2899,7 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2897,7 +2925,7 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2923,7 +2951,7 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2949,7 +2977,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2975,7 +3003,7 @@
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3001,7 +3029,7 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3027,7 +3055,7 @@
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3053,7 +3081,7 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3079,7 +3107,7 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3105,7 +3133,7 @@
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3131,7 +3159,7 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3157,7 +3185,7 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3183,7 +3211,7 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3209,7 +3237,7 @@
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3235,7 +3263,7 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3261,7 +3289,7 @@
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3287,7 +3315,7 @@
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3313,7 +3341,7 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3339,7 +3367,7 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3365,7 +3393,7 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3391,7 +3419,7 @@
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3417,7 +3445,7 @@
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3443,7 +3471,7 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3469,7 +3497,7 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3495,7 +3523,7 @@
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3521,7 +3549,7 @@
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3547,7 +3575,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3573,7 +3601,7 @@
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3599,7 +3627,7 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3625,7 +3653,7 @@
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3651,7 +3679,7 @@
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3677,7 +3705,7 @@
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3703,7 +3731,7 @@
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3729,7 +3757,7 @@
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3755,7 +3783,7 @@
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3781,7 +3809,7 @@
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3807,7 +3835,7 @@
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3833,7 +3861,7 @@
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3859,7 +3887,7 @@
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3885,7 +3913,7 @@
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3911,7 +3939,7 @@
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3937,7 +3965,7 @@
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3963,7 +3991,7 @@
       <c r="W127" s="5"/>
       <c r="X127" s="5"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3989,7 +4017,7 @@
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4015,7 +4043,7 @@
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4041,7 +4069,7 @@
       <c r="W130" s="5"/>
       <c r="X130" s="5"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4067,7 +4095,7 @@
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4093,7 +4121,7 @@
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4119,7 +4147,7 @@
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4145,7 +4173,7 @@
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4171,7 +4199,7 @@
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4197,7 +4225,7 @@
       <c r="W136" s="5"/>
       <c r="X136" s="5"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4223,7 +4251,7 @@
       <c r="W137" s="5"/>
       <c r="X137" s="5"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4249,7 +4277,7 @@
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4275,7 +4303,7 @@
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4301,7 +4329,7 @@
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4327,7 +4355,7 @@
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4353,7 +4381,7 @@
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4379,7 +4407,7 @@
       <c r="W143" s="5"/>
       <c r="X143" s="5"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4405,7 +4433,7 @@
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4431,7 +4459,7 @@
       <c r="W145" s="5"/>
       <c r="X145" s="5"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4457,7 +4485,7 @@
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4483,7 +4511,7 @@
       <c r="W147" s="5"/>
       <c r="X147" s="5"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4509,7 +4537,7 @@
       <c r="W148" s="5"/>
       <c r="X148" s="5"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4535,7 +4563,7 @@
       <c r="W149" s="5"/>
       <c r="X149" s="5"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4561,7 +4589,7 @@
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4587,7 +4615,7 @@
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4613,7 +4641,7 @@
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4639,7 +4667,7 @@
       <c r="W153" s="5"/>
       <c r="X153" s="5"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4665,7 +4693,7 @@
       <c r="W154" s="5"/>
       <c r="X154" s="5"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4691,7 +4719,7 @@
       <c r="W155" s="5"/>
       <c r="X155" s="5"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4717,7 +4745,7 @@
       <c r="W156" s="5"/>
       <c r="X156" s="5"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4743,7 +4771,7 @@
       <c r="W157" s="5"/>
       <c r="X157" s="5"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4769,7 +4797,7 @@
       <c r="W158" s="5"/>
       <c r="X158" s="5"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4795,7 +4823,7 @@
       <c r="W159" s="5"/>
       <c r="X159" s="5"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4821,7 +4849,7 @@
       <c r="W160" s="5"/>
       <c r="X160" s="5"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4847,7 +4875,7 @@
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4873,7 +4901,7 @@
       <c r="W162" s="5"/>
       <c r="X162" s="5"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4899,7 +4927,7 @@
       <c r="W163" s="5"/>
       <c r="X163" s="5"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4925,7 +4953,7 @@
       <c r="W164" s="5"/>
       <c r="X164" s="5"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4951,7 +4979,7 @@
       <c r="W165" s="5"/>
       <c r="X165" s="5"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4977,7 +5005,7 @@
       <c r="W166" s="5"/>
       <c r="X166" s="5"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5003,7 +5031,7 @@
       <c r="W167" s="5"/>
       <c r="X167" s="5"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5029,7 +5057,7 @@
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5055,7 +5083,7 @@
       <c r="W169" s="5"/>
       <c r="X169" s="5"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5081,7 +5109,7 @@
       <c r="W170" s="5"/>
       <c r="X170" s="5"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5107,7 +5135,7 @@
       <c r="W171" s="5"/>
       <c r="X171" s="5"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5133,7 +5161,7 @@
       <c r="W172" s="5"/>
       <c r="X172" s="5"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5159,7 +5187,7 @@
       <c r="W173" s="5"/>
       <c r="X173" s="5"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5185,7 +5213,7 @@
       <c r="W174" s="5"/>
       <c r="X174" s="5"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5211,7 +5239,7 @@
       <c r="W175" s="5"/>
       <c r="X175" s="5"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5237,7 +5265,7 @@
       <c r="W176" s="5"/>
       <c r="X176" s="5"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5263,7 +5291,7 @@
       <c r="W177" s="5"/>
       <c r="X177" s="5"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5289,7 +5317,7 @@
       <c r="W178" s="5"/>
       <c r="X178" s="5"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5315,7 +5343,7 @@
       <c r="W179" s="5"/>
       <c r="X179" s="5"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5341,7 +5369,7 @@
       <c r="W180" s="5"/>
       <c r="X180" s="5"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5367,7 +5395,7 @@
       <c r="W181" s="5"/>
       <c r="X181" s="5"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5393,7 +5421,7 @@
       <c r="W182" s="5"/>
       <c r="X182" s="5"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5419,7 +5447,7 @@
       <c r="W183" s="5"/>
       <c r="X183" s="5"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5445,7 +5473,7 @@
       <c r="W184" s="5"/>
       <c r="X184" s="5"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5471,7 +5499,7 @@
       <c r="W185" s="5"/>
       <c r="X185" s="5"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5497,7 +5525,7 @@
       <c r="W186" s="5"/>
       <c r="X186" s="5"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5523,7 +5551,7 @@
       <c r="W187" s="5"/>
       <c r="X187" s="5"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5549,7 +5577,7 @@
       <c r="W188" s="5"/>
       <c r="X188" s="5"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5575,7 +5603,7 @@
       <c r="W189" s="5"/>
       <c r="X189" s="5"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5601,7 +5629,7 @@
       <c r="W190" s="5"/>
       <c r="X190" s="5"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5627,7 +5655,7 @@
       <c r="W191" s="5"/>
       <c r="X191" s="5"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5653,7 +5681,7 @@
       <c r="W192" s="5"/>
       <c r="X192" s="5"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5679,7 +5707,7 @@
       <c r="W193" s="5"/>
       <c r="X193" s="5"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5705,7 +5733,7 @@
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5731,7 +5759,7 @@
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5757,7 +5785,7 @@
       <c r="W196" s="5"/>
       <c r="X196" s="5"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5783,7 +5811,7 @@
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5809,7 +5837,7 @@
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5835,7 +5863,7 @@
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5861,7 +5889,7 @@
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5887,7 +5915,7 @@
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5913,7 +5941,7 @@
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5939,7 +5967,7 @@
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5965,7 +5993,7 @@
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5991,7 +6019,7 @@
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6017,7 +6045,7 @@
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6043,7 +6071,7 @@
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6069,7 +6097,7 @@
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6095,7 +6123,7 @@
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6121,7 +6149,7 @@
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6147,7 +6175,7 @@
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6173,7 +6201,7 @@
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6199,7 +6227,7 @@
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6225,7 +6253,7 @@
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6251,7 +6279,7 @@
       <c r="W215" s="5"/>
       <c r="X215" s="5"/>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6277,7 +6305,7 @@
       <c r="W216" s="5"/>
       <c r="X216" s="5"/>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6303,7 +6331,7 @@
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6329,7 +6357,7 @@
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6355,7 +6383,7 @@
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6381,7 +6409,7 @@
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6407,7 +6435,7 @@
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6433,7 +6461,7 @@
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6459,7 +6487,7 @@
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6485,7 +6513,7 @@
       <c r="W224" s="5"/>
       <c r="X224" s="5"/>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6511,7 +6539,7 @@
       <c r="W225" s="5"/>
       <c r="X225" s="5"/>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6537,7 +6565,7 @@
       <c r="W226" s="5"/>
       <c r="X226" s="5"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6563,7 +6591,7 @@
       <c r="W227" s="5"/>
       <c r="X227" s="5"/>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6589,7 +6617,7 @@
       <c r="W228" s="5"/>
       <c r="X228" s="5"/>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6615,7 +6643,7 @@
       <c r="W229" s="5"/>
       <c r="X229" s="5"/>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6641,7 +6669,7 @@
       <c r="W230" s="5"/>
       <c r="X230" s="5"/>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6667,7 +6695,7 @@
       <c r="W231" s="5"/>
       <c r="X231" s="5"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6693,7 +6721,7 @@
       <c r="W232" s="5"/>
       <c r="X232" s="5"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6719,7 +6747,7 @@
       <c r="W233" s="5"/>
       <c r="X233" s="5"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6745,7 +6773,7 @@
       <c r="W234" s="5"/>
       <c r="X234" s="5"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6771,7 +6799,7 @@
       <c r="W235" s="5"/>
       <c r="X235" s="5"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -6797,7 +6825,7 @@
       <c r="W236" s="5"/>
       <c r="X236" s="5"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -6823,7 +6851,7 @@
       <c r="W237" s="5"/>
       <c r="X237" s="5"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -6849,7 +6877,7 @@
       <c r="W238" s="5"/>
       <c r="X238" s="5"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -6875,7 +6903,7 @@
       <c r="W239" s="5"/>
       <c r="X239" s="5"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -6901,7 +6929,7 @@
       <c r="W240" s="5"/>
       <c r="X240" s="5"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -6927,7 +6955,7 @@
       <c r="W241" s="5"/>
       <c r="X241" s="5"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -6953,7 +6981,7 @@
       <c r="W242" s="5"/>
       <c r="X242" s="5"/>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -6979,7 +7007,7 @@
       <c r="W243" s="5"/>
       <c r="X243" s="5"/>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -7005,7 +7033,7 @@
       <c r="W244" s="5"/>
       <c r="X244" s="5"/>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -7031,7 +7059,7 @@
       <c r="W245" s="5"/>
       <c r="X245" s="5"/>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -7057,7 +7085,7 @@
       <c r="W246" s="5"/>
       <c r="X246" s="5"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -7083,7 +7111,7 @@
       <c r="W247" s="5"/>
       <c r="X247" s="5"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7109,7 +7137,7 @@
       <c r="W248" s="5"/>
       <c r="X248" s="5"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7135,7 +7163,7 @@
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7161,7 +7189,7 @@
       <c r="W250" s="5"/>
       <c r="X250" s="5"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7187,7 +7215,7 @@
       <c r="W251" s="5"/>
       <c r="X251" s="5"/>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7213,7 +7241,7 @@
       <c r="W252" s="5"/>
       <c r="X252" s="5"/>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7239,7 +7267,7 @@
       <c r="W253" s="5"/>
       <c r="X253" s="5"/>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7265,7 +7293,7 @@
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7291,7 +7319,7 @@
       <c r="W255" s="5"/>
       <c r="X255" s="5"/>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7317,7 +7345,7 @@
       <c r="W256" s="5"/>
       <c r="X256" s="5"/>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7343,7 +7371,7 @@
       <c r="W257" s="5"/>
       <c r="X257" s="5"/>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7369,7 +7397,7 @@
       <c r="W258" s="5"/>
       <c r="X258" s="5"/>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7395,7 +7423,7 @@
       <c r="W259" s="5"/>
       <c r="X259" s="5"/>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7421,7 +7449,7 @@
       <c r="W260" s="5"/>
       <c r="X260" s="5"/>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7447,7 +7475,7 @@
       <c r="W261" s="5"/>
       <c r="X261" s="5"/>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7473,7 +7501,7 @@
       <c r="W262" s="5"/>
       <c r="X262" s="5"/>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7499,7 +7527,7 @@
       <c r="W263" s="5"/>
       <c r="X263" s="5"/>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7525,7 +7553,7 @@
       <c r="W264" s="5"/>
       <c r="X264" s="5"/>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7551,7 +7579,7 @@
       <c r="W265" s="5"/>
       <c r="X265" s="5"/>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7577,7 +7605,7 @@
       <c r="W266" s="5"/>
       <c r="X266" s="5"/>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7603,7 +7631,7 @@
       <c r="W267" s="5"/>
       <c r="X267" s="5"/>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7629,7 +7657,7 @@
       <c r="W268" s="5"/>
       <c r="X268" s="5"/>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7655,7 +7683,7 @@
       <c r="W269" s="5"/>
       <c r="X269" s="5"/>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7681,7 +7709,7 @@
       <c r="W270" s="5"/>
       <c r="X270" s="5"/>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7707,7 +7735,7 @@
       <c r="W271" s="5"/>
       <c r="X271" s="5"/>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7733,7 +7761,7 @@
       <c r="W272" s="5"/>
       <c r="X272" s="5"/>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7759,7 +7787,7 @@
       <c r="W273" s="5"/>
       <c r="X273" s="5"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7785,7 +7813,7 @@
       <c r="W274" s="5"/>
       <c r="X274" s="5"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7811,7 +7839,7 @@
       <c r="W275" s="5"/>
       <c r="X275" s="5"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -7837,7 +7865,7 @@
       <c r="W276" s="5"/>
       <c r="X276" s="5"/>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7863,7 +7891,7 @@
       <c r="W277" s="5"/>
       <c r="X277" s="5"/>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -7889,7 +7917,7 @@
       <c r="W278" s="5"/>
       <c r="X278" s="5"/>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -7915,7 +7943,7 @@
       <c r="W279" s="5"/>
       <c r="X279" s="5"/>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -7941,7 +7969,7 @@
       <c r="W280" s="5"/>
       <c r="X280" s="5"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -7967,7 +7995,7 @@
       <c r="W281" s="5"/>
       <c r="X281" s="5"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -7993,7 +8021,7 @@
       <c r="W282" s="5"/>
       <c r="X282" s="5"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -8019,7 +8047,7 @@
       <c r="W283" s="5"/>
       <c r="X283" s="5"/>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -8045,7 +8073,7 @@
       <c r="W284" s="5"/>
       <c r="X284" s="5"/>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -8071,7 +8099,7 @@
       <c r="W285" s="5"/>
       <c r="X285" s="5"/>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -8097,7 +8125,7 @@
       <c r="W286" s="5"/>
       <c r="X286" s="5"/>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -8123,7 +8151,7 @@
       <c r="W287" s="5"/>
       <c r="X287" s="5"/>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -8149,7 +8177,7 @@
       <c r="W288" s="5"/>
       <c r="X288" s="5"/>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -8175,7 +8203,7 @@
       <c r="W289" s="5"/>
       <c r="X289" s="5"/>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8201,7 +8229,7 @@
       <c r="W290" s="5"/>
       <c r="X290" s="5"/>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8227,7 +8255,7 @@
       <c r="W291" s="5"/>
       <c r="X291" s="5"/>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8253,7 +8281,7 @@
       <c r="W292" s="5"/>
       <c r="X292" s="5"/>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8279,7 +8307,7 @@
       <c r="W293" s="5"/>
       <c r="X293" s="5"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8305,7 +8333,7 @@
       <c r="W294" s="5"/>
       <c r="X294" s="5"/>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8331,7 +8359,7 @@
       <c r="W295" s="5"/>
       <c r="X295" s="5"/>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8357,7 +8385,7 @@
       <c r="W296" s="5"/>
       <c r="X296" s="5"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8383,7 +8411,7 @@
       <c r="W297" s="5"/>
       <c r="X297" s="5"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -8409,7 +8437,7 @@
       <c r="W298" s="5"/>
       <c r="X298" s="5"/>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8435,7 +8463,7 @@
       <c r="W299" s="5"/>
       <c r="X299" s="5"/>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8461,7 +8489,7 @@
       <c r="W300" s="5"/>
       <c r="X300" s="5"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8487,7 +8515,7 @@
       <c r="W301" s="5"/>
       <c r="X301" s="5"/>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8513,7 +8541,7 @@
       <c r="W302" s="5"/>
       <c r="X302" s="5"/>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -8539,7 +8567,7 @@
       <c r="W303" s="5"/>
       <c r="X303" s="5"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8565,7 +8593,7 @@
       <c r="W304" s="5"/>
       <c r="X304" s="5"/>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8591,7 +8619,7 @@
       <c r="W305" s="5"/>
       <c r="X305" s="5"/>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8617,7 +8645,7 @@
       <c r="W306" s="5"/>
       <c r="X306" s="5"/>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8643,7 +8671,7 @@
       <c r="W307" s="5"/>
       <c r="X307" s="5"/>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8669,7 +8697,7 @@
       <c r="W308" s="5"/>
       <c r="X308" s="5"/>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8695,7 +8723,7 @@
       <c r="W309" s="5"/>
       <c r="X309" s="5"/>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8721,7 +8749,7 @@
       <c r="W310" s="5"/>
       <c r="X310" s="5"/>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8747,7 +8775,7 @@
       <c r="W311" s="5"/>
       <c r="X311" s="5"/>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8773,7 +8801,7 @@
       <c r="W312" s="5"/>
       <c r="X312" s="5"/>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8799,7 +8827,7 @@
       <c r="W313" s="5"/>
       <c r="X313" s="5"/>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8825,7 +8853,7 @@
       <c r="W314" s="5"/>
       <c r="X314" s="5"/>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8851,7 +8879,7 @@
       <c r="W315" s="5"/>
       <c r="X315" s="5"/>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8877,7 +8905,7 @@
       <c r="W316" s="5"/>
       <c r="X316" s="5"/>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8903,7 +8931,7 @@
       <c r="W317" s="5"/>
       <c r="X317" s="5"/>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8929,7 +8957,7 @@
       <c r="W318" s="5"/>
       <c r="X318" s="5"/>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8955,7 +8983,7 @@
       <c r="W319" s="5"/>
       <c r="X319" s="5"/>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -8981,7 +9009,7 @@
       <c r="W320" s="5"/>
       <c r="X320" s="5"/>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -9007,7 +9035,7 @@
       <c r="W321" s="5"/>
       <c r="X321" s="5"/>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -9033,7 +9061,7 @@
       <c r="W322" s="5"/>
       <c r="X322" s="5"/>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -9059,7 +9087,7 @@
       <c r="W323" s="5"/>
       <c r="X323" s="5"/>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -9085,7 +9113,7 @@
       <c r="W324" s="5"/>
       <c r="X324" s="5"/>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -9111,7 +9139,7 @@
       <c r="W325" s="5"/>
       <c r="X325" s="5"/>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -9137,7 +9165,7 @@
       <c r="W326" s="5"/>
       <c r="X326" s="5"/>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -9163,7 +9191,7 @@
       <c r="W327" s="5"/>
       <c r="X327" s="5"/>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -9189,7 +9217,7 @@
       <c r="W328" s="5"/>
       <c r="X328" s="5"/>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -9215,7 +9243,7 @@
       <c r="W329" s="5"/>
       <c r="X329" s="5"/>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -9241,7 +9269,7 @@
       <c r="W330" s="5"/>
       <c r="X330" s="5"/>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -9267,7 +9295,7 @@
       <c r="W331" s="5"/>
       <c r="X331" s="5"/>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -9293,7 +9321,7 @@
       <c r="W332" s="5"/>
       <c r="X332" s="5"/>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -9319,7 +9347,7 @@
       <c r="W333" s="5"/>
       <c r="X333" s="5"/>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -9345,7 +9373,7 @@
       <c r="W334" s="5"/>
       <c r="X334" s="5"/>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9371,7 +9399,7 @@
       <c r="W335" s="5"/>
       <c r="X335" s="5"/>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9397,7 +9425,7 @@
       <c r="W336" s="5"/>
       <c r="X336" s="5"/>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9423,7 +9451,7 @@
       <c r="W337" s="5"/>
       <c r="X337" s="5"/>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9449,7 +9477,7 @@
       <c r="W338" s="5"/>
       <c r="X338" s="5"/>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -9475,7 +9503,7 @@
       <c r="W339" s="5"/>
       <c r="X339" s="5"/>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9501,7 +9529,7 @@
       <c r="W340" s="5"/>
       <c r="X340" s="5"/>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9527,7 +9555,7 @@
       <c r="W341" s="5"/>
       <c r="X341" s="5"/>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9553,7 +9581,7 @@
       <c r="W342" s="5"/>
       <c r="X342" s="5"/>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9579,7 +9607,7 @@
       <c r="W343" s="5"/>
       <c r="X343" s="5"/>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9605,7 +9633,7 @@
       <c r="W344" s="5"/>
       <c r="X344" s="5"/>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9631,7 +9659,7 @@
       <c r="W345" s="5"/>
       <c r="X345" s="5"/>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9657,7 +9685,7 @@
       <c r="W346" s="5"/>
       <c r="X346" s="5"/>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -9683,7 +9711,7 @@
       <c r="W347" s="5"/>
       <c r="X347" s="5"/>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9709,7 +9737,7 @@
       <c r="W348" s="5"/>
       <c r="X348" s="5"/>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9735,7 +9763,7 @@
       <c r="W349" s="5"/>
       <c r="X349" s="5"/>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9761,7 +9789,7 @@
       <c r="W350" s="5"/>
       <c r="X350" s="5"/>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9787,7 +9815,7 @@
       <c r="W351" s="5"/>
       <c r="X351" s="5"/>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9813,7 +9841,7 @@
       <c r="W352" s="5"/>
       <c r="X352" s="5"/>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9839,7 +9867,7 @@
       <c r="W353" s="5"/>
       <c r="X353" s="5"/>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9865,7 +9893,7 @@
       <c r="W354" s="5"/>
       <c r="X354" s="5"/>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9891,7 +9919,7 @@
       <c r="W355" s="5"/>
       <c r="X355" s="5"/>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9917,7 +9945,7 @@
       <c r="W356" s="5"/>
       <c r="X356" s="5"/>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9943,7 +9971,7 @@
       <c r="W357" s="5"/>
       <c r="X357" s="5"/>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9969,7 +9997,7 @@
       <c r="W358" s="5"/>
       <c r="X358" s="5"/>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9995,7 +10023,7 @@
       <c r="W359" s="5"/>
       <c r="X359" s="5"/>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -10021,7 +10049,7 @@
       <c r="W360" s="5"/>
       <c r="X360" s="5"/>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -10047,7 +10075,7 @@
       <c r="W361" s="5"/>
       <c r="X361" s="5"/>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -10073,7 +10101,7 @@
       <c r="W362" s="5"/>
       <c r="X362" s="5"/>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -10099,7 +10127,7 @@
       <c r="W363" s="5"/>
       <c r="X363" s="5"/>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -10125,7 +10153,7 @@
       <c r="W364" s="5"/>
       <c r="X364" s="5"/>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -10151,7 +10179,7 @@
       <c r="W365" s="5"/>
       <c r="X365" s="5"/>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -10177,7 +10205,7 @@
       <c r="W366" s="5"/>
       <c r="X366" s="5"/>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -10203,7 +10231,7 @@
       <c r="W367" s="5"/>
       <c r="X367" s="5"/>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -10229,7 +10257,7 @@
       <c r="W368" s="5"/>
       <c r="X368" s="5"/>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -10255,7 +10283,7 @@
       <c r="W369" s="5"/>
       <c r="X369" s="5"/>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -10281,7 +10309,7 @@
       <c r="W370" s="5"/>
       <c r="X370" s="5"/>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -10307,7 +10335,7 @@
       <c r="W371" s="5"/>
       <c r="X371" s="5"/>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -10333,7 +10361,7 @@
       <c r="W372" s="5"/>
       <c r="X372" s="5"/>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -10359,7 +10387,7 @@
       <c r="W373" s="5"/>
       <c r="X373" s="5"/>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -10385,7 +10413,7 @@
       <c r="W374" s="5"/>
       <c r="X374" s="5"/>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -10411,7 +10439,7 @@
       <c r="W375" s="5"/>
       <c r="X375" s="5"/>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -10437,7 +10465,7 @@
       <c r="W376" s="5"/>
       <c r="X376" s="5"/>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -10463,7 +10491,7 @@
       <c r="W377" s="5"/>
       <c r="X377" s="5"/>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10489,7 +10517,7 @@
       <c r="W378" s="5"/>
       <c r="X378" s="5"/>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10515,7 +10543,7 @@
       <c r="W379" s="5"/>
       <c r="X379" s="5"/>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10541,7 +10569,7 @@
       <c r="W380" s="5"/>
       <c r="X380" s="5"/>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10567,7 +10595,7 @@
       <c r="W381" s="5"/>
       <c r="X381" s="5"/>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10593,7 +10621,7 @@
       <c r="W382" s="5"/>
       <c r="X382" s="5"/>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10619,7 +10647,7 @@
       <c r="W383" s="5"/>
       <c r="X383" s="5"/>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10645,7 +10673,7 @@
       <c r="W384" s="5"/>
       <c r="X384" s="5"/>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10671,7 +10699,7 @@
       <c r="W385" s="5"/>
       <c r="X385" s="5"/>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10697,7 +10725,7 @@
       <c r="W386" s="5"/>
       <c r="X386" s="5"/>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10723,7 +10751,7 @@
       <c r="W387" s="5"/>
       <c r="X387" s="5"/>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -10749,7 +10777,7 @@
       <c r="W388" s="5"/>
       <c r="X388" s="5"/>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10775,7 +10803,7 @@
       <c r="W389" s="5"/>
       <c r="X389" s="5"/>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10801,7 +10829,7 @@
       <c r="W390" s="5"/>
       <c r="X390" s="5"/>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10827,7 +10855,7 @@
       <c r="W391" s="5"/>
       <c r="X391" s="5"/>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10853,7 +10881,7 @@
       <c r="W392" s="5"/>
       <c r="X392" s="5"/>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10879,7 +10907,7 @@
       <c r="W393" s="5"/>
       <c r="X393" s="5"/>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10905,7 +10933,7 @@
       <c r="W394" s="5"/>
       <c r="X394" s="5"/>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10931,7 +10959,7 @@
       <c r="W395" s="5"/>
       <c r="X395" s="5"/>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -10957,7 +10985,7 @@
       <c r="W396" s="5"/>
       <c r="X396" s="5"/>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10983,7 +11011,7 @@
       <c r="W397" s="5"/>
       <c r="X397" s="5"/>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -11009,7 +11037,7 @@
       <c r="W398" s="5"/>
       <c r="X398" s="5"/>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -11035,7 +11063,7 @@
       <c r="W399" s="5"/>
       <c r="X399" s="5"/>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -11061,7 +11089,7 @@
       <c r="W400" s="5"/>
       <c r="X400" s="5"/>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -11087,7 +11115,7 @@
       <c r="W401" s="5"/>
       <c r="X401" s="5"/>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -11113,7 +11141,7 @@
       <c r="W402" s="5"/>
       <c r="X402" s="5"/>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -11139,7 +11167,7 @@
       <c r="W403" s="5"/>
       <c r="X403" s="5"/>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -11165,7 +11193,7 @@
       <c r="W404" s="5"/>
       <c r="X404" s="5"/>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -11191,7 +11219,7 @@
       <c r="W405" s="5"/>
       <c r="X405" s="5"/>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -11217,7 +11245,7 @@
       <c r="W406" s="5"/>
       <c r="X406" s="5"/>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -11243,7 +11271,7 @@
       <c r="W407" s="5"/>
       <c r="X407" s="5"/>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -11269,7 +11297,7 @@
       <c r="W408" s="5"/>
       <c r="X408" s="5"/>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -11295,7 +11323,7 @@
       <c r="W409" s="5"/>
       <c r="X409" s="5"/>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -11321,7 +11349,7 @@
       <c r="W410" s="5"/>
       <c r="X410" s="5"/>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -11347,7 +11375,7 @@
       <c r="W411" s="5"/>
       <c r="X411" s="5"/>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -11373,7 +11401,7 @@
       <c r="W412" s="5"/>
       <c r="X412" s="5"/>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -11399,7 +11427,7 @@
       <c r="W413" s="5"/>
       <c r="X413" s="5"/>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -11425,7 +11453,7 @@
       <c r="W414" s="5"/>
       <c r="X414" s="5"/>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -11451,7 +11479,7 @@
       <c r="W415" s="5"/>
       <c r="X415" s="5"/>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -11477,7 +11505,7 @@
       <c r="W416" s="5"/>
       <c r="X416" s="5"/>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -11503,7 +11531,7 @@
       <c r="W417" s="5"/>
       <c r="X417" s="5"/>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -11529,7 +11557,7 @@
       <c r="W418" s="5"/>
       <c r="X418" s="5"/>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -11555,7 +11583,7 @@
       <c r="W419" s="5"/>
       <c r="X419" s="5"/>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -11581,7 +11609,7 @@
       <c r="W420" s="5"/>
       <c r="X420" s="5"/>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -11607,7 +11635,7 @@
       <c r="W421" s="5"/>
       <c r="X421" s="5"/>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11633,7 +11661,7 @@
       <c r="W422" s="5"/>
       <c r="X422" s="5"/>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11659,7 +11687,7 @@
       <c r="W423" s="5"/>
       <c r="X423" s="5"/>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11685,7 +11713,7 @@
       <c r="W424" s="5"/>
       <c r="X424" s="5"/>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11711,7 +11739,7 @@
       <c r="W425" s="5"/>
       <c r="X425" s="5"/>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11737,7 +11765,7 @@
       <c r="W426" s="5"/>
       <c r="X426" s="5"/>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11763,7 +11791,7 @@
       <c r="W427" s="5"/>
       <c r="X427" s="5"/>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11789,7 +11817,7 @@
       <c r="W428" s="5"/>
       <c r="X428" s="5"/>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -11815,7 +11843,7 @@
       <c r="W429" s="5"/>
       <c r="X429" s="5"/>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11841,7 +11869,7 @@
       <c r="W430" s="5"/>
       <c r="X430" s="5"/>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11867,7 +11895,7 @@
       <c r="W431" s="5"/>
       <c r="X431" s="5"/>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11893,7 +11921,7 @@
       <c r="W432" s="5"/>
       <c r="X432" s="5"/>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11919,7 +11947,7 @@
       <c r="W433" s="5"/>
       <c r="X433" s="5"/>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11945,7 +11973,7 @@
       <c r="W434" s="5"/>
       <c r="X434" s="5"/>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11971,7 +11999,7 @@
       <c r="W435" s="5"/>
       <c r="X435" s="5"/>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11997,7 +12025,7 @@
       <c r="W436" s="5"/>
       <c r="X436" s="5"/>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -12023,7 +12051,7 @@
       <c r="W437" s="5"/>
       <c r="X437" s="5"/>
     </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -12049,7 +12077,7 @@
       <c r="W438" s="5"/>
       <c r="X438" s="5"/>
     </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -12075,7 +12103,7 @@
       <c r="W439" s="5"/>
       <c r="X439" s="5"/>
     </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -12101,7 +12129,7 @@
       <c r="W440" s="5"/>
       <c r="X440" s="5"/>
     </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -12127,7 +12155,7 @@
       <c r="W441" s="5"/>
       <c r="X441" s="5"/>
     </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -12153,7 +12181,7 @@
       <c r="W442" s="5"/>
       <c r="X442" s="5"/>
     </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -12179,7 +12207,7 @@
       <c r="W443" s="5"/>
       <c r="X443" s="5"/>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -12205,7 +12233,7 @@
       <c r="W444" s="5"/>
       <c r="X444" s="5"/>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -12231,7 +12259,7 @@
       <c r="W445" s="5"/>
       <c r="X445" s="5"/>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -12257,7 +12285,7 @@
       <c r="W446" s="5"/>
       <c r="X446" s="5"/>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -12283,7 +12311,7 @@
       <c r="W447" s="5"/>
       <c r="X447" s="5"/>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -12309,7 +12337,7 @@
       <c r="W448" s="5"/>
       <c r="X448" s="5"/>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -12335,7 +12363,7 @@
       <c r="W449" s="5"/>
       <c r="X449" s="5"/>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -12361,7 +12389,7 @@
       <c r="W450" s="5"/>
       <c r="X450" s="5"/>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -12387,7 +12415,7 @@
       <c r="W451" s="5"/>
       <c r="X451" s="5"/>
     </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -12413,7 +12441,7 @@
       <c r="W452" s="5"/>
       <c r="X452" s="5"/>
     </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -12439,7 +12467,7 @@
       <c r="W453" s="5"/>
       <c r="X453" s="5"/>
     </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -12465,7 +12493,7 @@
       <c r="W454" s="5"/>
       <c r="X454" s="5"/>
     </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -12491,7 +12519,7 @@
       <c r="W455" s="5"/>
       <c r="X455" s="5"/>
     </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -12517,7 +12545,7 @@
       <c r="W456" s="5"/>
       <c r="X456" s="5"/>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -12543,7 +12571,7 @@
       <c r="W457" s="5"/>
       <c r="X457" s="5"/>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -12569,7 +12597,7 @@
       <c r="W458" s="5"/>
       <c r="X458" s="5"/>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -12595,7 +12623,7 @@
       <c r="W459" s="5"/>
       <c r="X459" s="5"/>
     </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -12621,7 +12649,7 @@
       <c r="W460" s="5"/>
       <c r="X460" s="5"/>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -12647,7 +12675,7 @@
       <c r="W461" s="5"/>
       <c r="X461" s="5"/>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -12673,7 +12701,7 @@
       <c r="W462" s="5"/>
       <c r="X462" s="5"/>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -12699,7 +12727,7 @@
       <c r="W463" s="5"/>
       <c r="X463" s="5"/>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -12725,7 +12753,7 @@
       <c r="W464" s="5"/>
       <c r="X464" s="5"/>
     </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12751,7 +12779,7 @@
       <c r="W465" s="5"/>
       <c r="X465" s="5"/>
     </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12777,7 +12805,7 @@
       <c r="W466" s="5"/>
       <c r="X466" s="5"/>
     </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12803,7 +12831,7 @@
       <c r="W467" s="5"/>
       <c r="X467" s="5"/>
     </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12829,7 +12857,7 @@
       <c r="W468" s="5"/>
       <c r="X468" s="5"/>
     </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12855,7 +12883,7 @@
       <c r="W469" s="5"/>
       <c r="X469" s="5"/>
     </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12881,7 +12909,7 @@
       <c r="W470" s="5"/>
       <c r="X470" s="5"/>
     </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12907,7 +12935,7 @@
       <c r="W471" s="5"/>
       <c r="X471" s="5"/>
     </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12933,7 +12961,7 @@
       <c r="W472" s="5"/>
       <c r="X472" s="5"/>
     </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -12959,7 +12987,7 @@
       <c r="W473" s="5"/>
       <c r="X473" s="5"/>
     </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12985,7 +13013,7 @@
       <c r="W474" s="5"/>
       <c r="X474" s="5"/>
     </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -13011,7 +13039,7 @@
       <c r="W475" s="5"/>
       <c r="X475" s="5"/>
     </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -13037,7 +13065,7 @@
       <c r="W476" s="5"/>
       <c r="X476" s="5"/>
     </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -13063,7 +13091,7 @@
       <c r="W477" s="5"/>
       <c r="X477" s="5"/>
     </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -13089,7 +13117,7 @@
       <c r="W478" s="5"/>
       <c r="X478" s="5"/>
     </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -13115,7 +13143,7 @@
       <c r="W479" s="5"/>
       <c r="X479" s="5"/>
     </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -13141,7 +13169,7 @@
       <c r="W480" s="5"/>
       <c r="X480" s="5"/>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -13167,7 +13195,7 @@
       <c r="W481" s="5"/>
       <c r="X481" s="5"/>
     </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -13193,7 +13221,7 @@
       <c r="W482" s="5"/>
       <c r="X482" s="5"/>
     </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -13219,7 +13247,7 @@
       <c r="W483" s="5"/>
       <c r="X483" s="5"/>
     </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -13245,7 +13273,7 @@
       <c r="W484" s="5"/>
       <c r="X484" s="5"/>
     </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -13271,7 +13299,7 @@
       <c r="W485" s="5"/>
       <c r="X485" s="5"/>
     </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -13297,7 +13325,7 @@
       <c r="W486" s="5"/>
       <c r="X486" s="5"/>
     </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -13323,7 +13351,7 @@
       <c r="W487" s="5"/>
       <c r="X487" s="5"/>
     </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -13349,7 +13377,7 @@
       <c r="W488" s="5"/>
       <c r="X488" s="5"/>
     </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -13375,7 +13403,7 @@
       <c r="W489" s="5"/>
       <c r="X489" s="5"/>
     </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -13401,7 +13429,7 @@
       <c r="W490" s="5"/>
       <c r="X490" s="5"/>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -13427,7 +13455,7 @@
       <c r="W491" s="5"/>
       <c r="X491" s="5"/>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -13453,7 +13481,7 @@
       <c r="W492" s="5"/>
       <c r="X492" s="5"/>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -13479,7 +13507,7 @@
       <c r="W493" s="5"/>
       <c r="X493" s="5"/>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -13505,7 +13533,7 @@
       <c r="W494" s="5"/>
       <c r="X494" s="5"/>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -13531,7 +13559,7 @@
       <c r="W495" s="5"/>
       <c r="X495" s="5"/>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -13557,7 +13585,7 @@
       <c r="W496" s="5"/>
       <c r="X496" s="5"/>
     </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -13583,7 +13611,7 @@
       <c r="W497" s="5"/>
       <c r="X497" s="5"/>
     </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -13609,7 +13637,7 @@
       <c r="W498" s="5"/>
       <c r="X498" s="5"/>
     </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -13635,7 +13663,7 @@
       <c r="W499" s="5"/>
       <c r="X499" s="5"/>
     </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -13661,7 +13689,7 @@
       <c r="W500" s="5"/>
       <c r="X500" s="5"/>
     </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:24">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -13687,7 +13715,7 @@
       <c r="W501" s="5"/>
       <c r="X501" s="5"/>
     </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:24">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -13713,7 +13741,7 @@
       <c r="W502" s="5"/>
       <c r="X502" s="5"/>
     </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:24">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -13739,7 +13767,7 @@
       <c r="W503" s="5"/>
       <c r="X503" s="5"/>
     </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:24">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -13765,7 +13793,7 @@
       <c r="W504" s="5"/>
       <c r="X504" s="5"/>
     </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:24">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -13791,7 +13819,7 @@
       <c r="W505" s="5"/>
       <c r="X505" s="5"/>
     </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:24">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -13817,7 +13845,7 @@
       <c r="W506" s="5"/>
       <c r="X506" s="5"/>
     </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:24">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -13843,7 +13871,7 @@
       <c r="W507" s="5"/>
       <c r="X507" s="5"/>
     </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:24">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -13869,7 +13897,7 @@
       <c r="W508" s="5"/>
       <c r="X508" s="5"/>
     </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:24">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13895,7 +13923,7 @@
       <c r="W509" s="5"/>
       <c r="X509" s="5"/>
     </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:24">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -13921,7 +13949,7 @@
       <c r="W510" s="5"/>
       <c r="X510" s="5"/>
     </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:24">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -13947,7 +13975,7 @@
       <c r="W511" s="5"/>
       <c r="X511" s="5"/>
     </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:24">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -13973,7 +14001,7 @@
       <c r="W512" s="5"/>
       <c r="X512" s="5"/>
     </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:24">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -13999,7 +14027,7 @@
       <c r="W513" s="5"/>
       <c r="X513" s="5"/>
     </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:24">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -14025,7 +14053,7 @@
       <c r="W514" s="5"/>
       <c r="X514" s="5"/>
     </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:24">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -14051,7 +14079,7 @@
       <c r="W515" s="5"/>
       <c r="X515" s="5"/>
     </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:24">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -14077,7 +14105,7 @@
       <c r="W516" s="5"/>
       <c r="X516" s="5"/>
     </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:24">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -14103,7 +14131,7 @@
       <c r="W517" s="5"/>
       <c r="X517" s="5"/>
     </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:24">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -14129,7 +14157,7 @@
       <c r="W518" s="5"/>
       <c r="X518" s="5"/>
     </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:24">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -14155,7 +14183,7 @@
       <c r="W519" s="5"/>
       <c r="X519" s="5"/>
     </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:24">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -14181,7 +14209,7 @@
       <c r="W520" s="5"/>
       <c r="X520" s="5"/>
     </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:24">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -14207,7 +14235,7 @@
       <c r="W521" s="5"/>
       <c r="X521" s="5"/>
     </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:24">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -14233,7 +14261,7 @@
       <c r="W522" s="5"/>
       <c r="X522" s="5"/>
     </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:24">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -14259,7 +14287,7 @@
       <c r="W523" s="5"/>
       <c r="X523" s="5"/>
     </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:24">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -14285,7 +14313,7 @@
       <c r="W524" s="5"/>
       <c r="X524" s="5"/>
     </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:24">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -14311,7 +14339,7 @@
       <c r="W525" s="5"/>
       <c r="X525" s="5"/>
     </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:24">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -14337,7 +14365,7 @@
       <c r="W526" s="5"/>
       <c r="X526" s="5"/>
     </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:24">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -14363,7 +14391,7 @@
       <c r="W527" s="5"/>
       <c r="X527" s="5"/>
     </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:24">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -14389,7 +14417,7 @@
       <c r="W528" s="5"/>
       <c r="X528" s="5"/>
     </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:24">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -14415,7 +14443,7 @@
       <c r="W529" s="5"/>
       <c r="X529" s="5"/>
     </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:24">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -14441,7 +14469,7 @@
       <c r="W530" s="5"/>
       <c r="X530" s="5"/>
     </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:24">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -14467,7 +14495,7 @@
       <c r="W531" s="5"/>
       <c r="X531" s="5"/>
     </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:24">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -14493,7 +14521,7 @@
       <c r="W532" s="5"/>
       <c r="X532" s="5"/>
     </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:24">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -14519,7 +14547,7 @@
       <c r="W533" s="5"/>
       <c r="X533" s="5"/>
     </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:24">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -14545,7 +14573,7 @@
       <c r="W534" s="5"/>
       <c r="X534" s="5"/>
     </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:24">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -14571,7 +14599,7 @@
       <c r="W535" s="5"/>
       <c r="X535" s="5"/>
     </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:24">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -14597,7 +14625,7 @@
       <c r="W536" s="5"/>
       <c r="X536" s="5"/>
     </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:24">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -14623,7 +14651,7 @@
       <c r="W537" s="5"/>
       <c r="X537" s="5"/>
     </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:24">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -14649,7 +14677,7 @@
       <c r="W538" s="5"/>
       <c r="X538" s="5"/>
     </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:24">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -14675,7 +14703,7 @@
       <c r="W539" s="5"/>
       <c r="X539" s="5"/>
     </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:24">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -14701,7 +14729,7 @@
       <c r="W540" s="5"/>
       <c r="X540" s="5"/>
     </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:24">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -14727,7 +14755,7 @@
       <c r="W541" s="5"/>
       <c r="X541" s="5"/>
     </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:24">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -14753,7 +14781,7 @@
       <c r="W542" s="5"/>
       <c r="X542" s="5"/>
     </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:24">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -14779,7 +14807,7 @@
       <c r="W543" s="5"/>
       <c r="X543" s="5"/>
     </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:24">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -14805,7 +14833,7 @@
       <c r="W544" s="5"/>
       <c r="X544" s="5"/>
     </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:24">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -14831,7 +14859,7 @@
       <c r="W545" s="5"/>
       <c r="X545" s="5"/>
     </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:24">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -14857,7 +14885,7 @@
       <c r="W546" s="5"/>
       <c r="X546" s="5"/>
     </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:24">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -14883,7 +14911,7 @@
       <c r="W547" s="5"/>
       <c r="X547" s="5"/>
     </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:24">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -14909,7 +14937,7 @@
       <c r="W548" s="5"/>
       <c r="X548" s="5"/>
     </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:24">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -14935,7 +14963,7 @@
       <c r="W549" s="5"/>
       <c r="X549" s="5"/>
     </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:24">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -14961,7 +14989,7 @@
       <c r="W550" s="5"/>
       <c r="X550" s="5"/>
     </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:24">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -14987,7 +15015,7 @@
       <c r="W551" s="5"/>
       <c r="X551" s="5"/>
     </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:24">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -15013,7 +15041,7 @@
       <c r="W552" s="5"/>
       <c r="X552" s="5"/>
     </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:24">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -15039,7 +15067,7 @@
       <c r="W553" s="5"/>
       <c r="X553" s="5"/>
     </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:24">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -15065,7 +15093,7 @@
       <c r="W554" s="5"/>
       <c r="X554" s="5"/>
     </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:24">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -15091,7 +15119,7 @@
       <c r="W555" s="5"/>
       <c r="X555" s="5"/>
     </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:24">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -15117,7 +15145,7 @@
       <c r="W556" s="5"/>
       <c r="X556" s="5"/>
     </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:24">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -15143,7 +15171,7 @@
       <c r="W557" s="5"/>
       <c r="X557" s="5"/>
     </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:24">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -15169,7 +15197,7 @@
       <c r="W558" s="5"/>
       <c r="X558" s="5"/>
     </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:24">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -15195,7 +15223,7 @@
       <c r="W559" s="5"/>
       <c r="X559" s="5"/>
     </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:24">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -15221,7 +15249,7 @@
       <c r="W560" s="5"/>
       <c r="X560" s="5"/>
     </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:24">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -15247,7 +15275,7 @@
       <c r="W561" s="5"/>
       <c r="X561" s="5"/>
     </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:24">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -15273,7 +15301,7 @@
       <c r="W562" s="5"/>
       <c r="X562" s="5"/>
     </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:24">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -15299,7 +15327,7 @@
       <c r="W563" s="5"/>
       <c r="X563" s="5"/>
     </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:24">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -15325,7 +15353,7 @@
       <c r="W564" s="5"/>
       <c r="X564" s="5"/>
     </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:24">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -15351,7 +15379,7 @@
       <c r="W565" s="5"/>
       <c r="X565" s="5"/>
     </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:24">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -15377,7 +15405,7 @@
       <c r="W566" s="5"/>
       <c r="X566" s="5"/>
     </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:24">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -15403,7 +15431,7 @@
       <c r="W567" s="5"/>
       <c r="X567" s="5"/>
     </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:24">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -15429,7 +15457,7 @@
       <c r="W568" s="5"/>
       <c r="X568" s="5"/>
     </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:24">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -15455,7 +15483,7 @@
       <c r="W569" s="5"/>
       <c r="X569" s="5"/>
     </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:24">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -15481,7 +15509,7 @@
       <c r="W570" s="5"/>
       <c r="X570" s="5"/>
     </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:24">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -15507,7 +15535,7 @@
       <c r="W571" s="5"/>
       <c r="X571" s="5"/>
     </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:24">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -15533,7 +15561,7 @@
       <c r="W572" s="5"/>
       <c r="X572" s="5"/>
     </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:24">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -15559,7 +15587,7 @@
       <c r="W573" s="5"/>
       <c r="X573" s="5"/>
     </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:24">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -15585,7 +15613,7 @@
       <c r="W574" s="5"/>
       <c r="X574" s="5"/>
     </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:24">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -15611,7 +15639,7 @@
       <c r="W575" s="5"/>
       <c r="X575" s="5"/>
     </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:24">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -15637,7 +15665,7 @@
       <c r="W576" s="5"/>
       <c r="X576" s="5"/>
     </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:24">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -15663,7 +15691,7 @@
       <c r="W577" s="5"/>
       <c r="X577" s="5"/>
     </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:24">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -15689,7 +15717,7 @@
       <c r="W578" s="5"/>
       <c r="X578" s="5"/>
     </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:24">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -15715,7 +15743,7 @@
       <c r="W579" s="5"/>
       <c r="X579" s="5"/>
     </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:24">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -15741,7 +15769,7 @@
       <c r="W580" s="5"/>
       <c r="X580" s="5"/>
     </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:24">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -15767,7 +15795,7 @@
       <c r="W581" s="5"/>
       <c r="X581" s="5"/>
     </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:24">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -15793,7 +15821,7 @@
       <c r="W582" s="5"/>
       <c r="X582" s="5"/>
     </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:24">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -15819,7 +15847,7 @@
       <c r="W583" s="5"/>
       <c r="X583" s="5"/>
     </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:24">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -15845,7 +15873,7 @@
       <c r="W584" s="5"/>
       <c r="X584" s="5"/>
     </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:24">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -15871,7 +15899,7 @@
       <c r="W585" s="5"/>
       <c r="X585" s="5"/>
     </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:24">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -15897,7 +15925,7 @@
       <c r="W586" s="5"/>
       <c r="X586" s="5"/>
     </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:24">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -15923,7 +15951,7 @@
       <c r="W587" s="5"/>
       <c r="X587" s="5"/>
     </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:24">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -15949,7 +15977,7 @@
       <c r="W588" s="5"/>
       <c r="X588" s="5"/>
     </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:24">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -15975,7 +16003,7 @@
       <c r="W589" s="5"/>
       <c r="X589" s="5"/>
     </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:24">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -16001,7 +16029,7 @@
       <c r="W590" s="5"/>
       <c r="X590" s="5"/>
     </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:24">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -16027,7 +16055,7 @@
       <c r="W591" s="5"/>
       <c r="X591" s="5"/>
     </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:24">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -16053,7 +16081,7 @@
       <c r="W592" s="5"/>
       <c r="X592" s="5"/>
     </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:24">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -16079,7 +16107,7 @@
       <c r="W593" s="5"/>
       <c r="X593" s="5"/>
     </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:24">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -16105,7 +16133,7 @@
       <c r="W594" s="5"/>
       <c r="X594" s="5"/>
     </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:24">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -16131,7 +16159,7 @@
       <c r="W595" s="5"/>
       <c r="X595" s="5"/>
     </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:24">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -16157,7 +16185,7 @@
       <c r="W596" s="5"/>
       <c r="X596" s="5"/>
     </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:24">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -16183,7 +16211,7 @@
       <c r="W597" s="5"/>
       <c r="X597" s="5"/>
     </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:24">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -16209,7 +16237,7 @@
       <c r="W598" s="5"/>
       <c r="X598" s="5"/>
     </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:24">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -16235,7 +16263,7 @@
       <c r="W599" s="5"/>
       <c r="X599" s="5"/>
     </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:24">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -16261,7 +16289,7 @@
       <c r="W600" s="5"/>
       <c r="X600" s="5"/>
     </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:24">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -16287,7 +16315,7 @@
       <c r="W601" s="5"/>
       <c r="X601" s="5"/>
     </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:24">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -16313,7 +16341,7 @@
       <c r="W602" s="5"/>
       <c r="X602" s="5"/>
     </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:24">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -16339,7 +16367,7 @@
       <c r="W603" s="5"/>
       <c r="X603" s="5"/>
     </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:24">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -16365,7 +16393,7 @@
       <c r="W604" s="5"/>
       <c r="X604" s="5"/>
     </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:24">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -16391,7 +16419,7 @@
       <c r="W605" s="5"/>
       <c r="X605" s="5"/>
     </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:24">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -16417,7 +16445,7 @@
       <c r="W606" s="5"/>
       <c r="X606" s="5"/>
     </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:24">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -16443,7 +16471,7 @@
       <c r="W607" s="5"/>
       <c r="X607" s="5"/>
     </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:24">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -16469,7 +16497,7 @@
       <c r="W608" s="5"/>
       <c r="X608" s="5"/>
     </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:24">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -16495,7 +16523,7 @@
       <c r="W609" s="5"/>
       <c r="X609" s="5"/>
     </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:24">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -16521,7 +16549,7 @@
       <c r="W610" s="5"/>
       <c r="X610" s="5"/>
     </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:24">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -16547,7 +16575,7 @@
       <c r="W611" s="5"/>
       <c r="X611" s="5"/>
     </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:24">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -16573,7 +16601,7 @@
       <c r="W612" s="5"/>
       <c r="X612" s="5"/>
     </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:24">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -16599,7 +16627,7 @@
       <c r="W613" s="5"/>
       <c r="X613" s="5"/>
     </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:24">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -16625,7 +16653,7 @@
       <c r="W614" s="5"/>
       <c r="X614" s="5"/>
     </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:24">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -16651,7 +16679,7 @@
       <c r="W615" s="5"/>
       <c r="X615" s="5"/>
     </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:24">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -16677,7 +16705,7 @@
       <c r="W616" s="5"/>
       <c r="X616" s="5"/>
     </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:24">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -16703,7 +16731,7 @@
       <c r="W617" s="5"/>
       <c r="X617" s="5"/>
     </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:24">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -16729,7 +16757,7 @@
       <c r="W618" s="5"/>
       <c r="X618" s="5"/>
     </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:24">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -16755,7 +16783,7 @@
       <c r="W619" s="5"/>
       <c r="X619" s="5"/>
     </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:24">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -16781,7 +16809,7 @@
       <c r="W620" s="5"/>
       <c r="X620" s="5"/>
     </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:24">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -16807,7 +16835,7 @@
       <c r="W621" s="5"/>
       <c r="X621" s="5"/>
     </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:24">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -16833,7 +16861,7 @@
       <c r="W622" s="5"/>
       <c r="X622" s="5"/>
     </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:24">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -16859,7 +16887,7 @@
       <c r="W623" s="5"/>
       <c r="X623" s="5"/>
     </row>
-    <row r="624" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:24">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -16885,7 +16913,7 @@
       <c r="W624" s="5"/>
       <c r="X624" s="5"/>
     </row>
-    <row r="625" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:24">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -16911,7 +16939,7 @@
       <c r="W625" s="5"/>
       <c r="X625" s="5"/>
     </row>
-    <row r="626" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:24">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -16937,7 +16965,7 @@
       <c r="W626" s="5"/>
       <c r="X626" s="5"/>
     </row>
-    <row r="627" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:24">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -16963,7 +16991,7 @@
       <c r="W627" s="5"/>
       <c r="X627" s="5"/>
     </row>
-    <row r="628" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:24">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -16989,7 +17017,7 @@
       <c r="W628" s="5"/>
       <c r="X628" s="5"/>
     </row>
-    <row r="629" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:24">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -17015,7 +17043,7 @@
       <c r="W629" s="5"/>
       <c r="X629" s="5"/>
     </row>
-    <row r="630" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:24">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -17041,7 +17069,7 @@
       <c r="W630" s="5"/>
       <c r="X630" s="5"/>
     </row>
-    <row r="631" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:24">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -17067,7 +17095,7 @@
       <c r="W631" s="5"/>
       <c r="X631" s="5"/>
     </row>
-    <row r="632" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:24">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -17093,7 +17121,7 @@
       <c r="W632" s="5"/>
       <c r="X632" s="5"/>
     </row>
-    <row r="633" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:24">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -17119,7 +17147,7 @@
       <c r="W633" s="5"/>
       <c r="X633" s="5"/>
     </row>
-    <row r="634" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:24">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -17145,7 +17173,7 @@
       <c r="W634" s="5"/>
       <c r="X634" s="5"/>
     </row>
-    <row r="635" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:24">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -17171,7 +17199,7 @@
       <c r="W635" s="5"/>
       <c r="X635" s="5"/>
     </row>
-    <row r="636" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:24">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -17197,7 +17225,7 @@
       <c r="W636" s="5"/>
       <c r="X636" s="5"/>
     </row>
-    <row r="637" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:24">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -17223,7 +17251,7 @@
       <c r="W637" s="5"/>
       <c r="X637" s="5"/>
     </row>
-    <row r="638" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:24">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -17249,7 +17277,7 @@
       <c r="W638" s="5"/>
       <c r="X638" s="5"/>
     </row>
-    <row r="639" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:24">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -17275,7 +17303,7 @@
       <c r="W639" s="5"/>
       <c r="X639" s="5"/>
     </row>
-    <row r="640" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:24">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -17301,7 +17329,7 @@
       <c r="W640" s="5"/>
       <c r="X640" s="5"/>
     </row>
-    <row r="641" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:24">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -17327,7 +17355,7 @@
       <c r="W641" s="5"/>
       <c r="X641" s="5"/>
     </row>
-    <row r="642" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:24">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -17353,7 +17381,7 @@
       <c r="W642" s="5"/>
       <c r="X642" s="5"/>
     </row>
-    <row r="643" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:24">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -17379,7 +17407,7 @@
       <c r="W643" s="5"/>
       <c r="X643" s="5"/>
     </row>
-    <row r="644" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:24">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -17405,7 +17433,7 @@
       <c r="W644" s="5"/>
       <c r="X644" s="5"/>
     </row>
-    <row r="645" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:24">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -17431,7 +17459,7 @@
       <c r="W645" s="5"/>
       <c r="X645" s="5"/>
     </row>
-    <row r="646" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:24">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -17457,7 +17485,7 @@
       <c r="W646" s="5"/>
       <c r="X646" s="5"/>
     </row>
-    <row r="647" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:24">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -17483,7 +17511,7 @@
       <c r="W647" s="5"/>
       <c r="X647" s="5"/>
     </row>
-    <row r="648" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:24">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -17509,7 +17537,7 @@
       <c r="W648" s="5"/>
       <c r="X648" s="5"/>
     </row>
-    <row r="649" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:24">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -17535,7 +17563,7 @@
       <c r="W649" s="5"/>
       <c r="X649" s="5"/>
     </row>
-    <row r="650" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:24">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -17561,7 +17589,7 @@
       <c r="W650" s="5"/>
       <c r="X650" s="5"/>
     </row>
-    <row r="651" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:24">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -17587,7 +17615,7 @@
       <c r="W651" s="5"/>
       <c r="X651" s="5"/>
     </row>
-    <row r="652" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:24">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -17613,7 +17641,7 @@
       <c r="W652" s="5"/>
       <c r="X652" s="5"/>
     </row>
-    <row r="653" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:24">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -17639,7 +17667,7 @@
       <c r="W653" s="5"/>
       <c r="X653" s="5"/>
     </row>
-    <row r="654" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:24">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -17665,7 +17693,7 @@
       <c r="W654" s="5"/>
       <c r="X654" s="5"/>
     </row>
-    <row r="655" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:24">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -17691,7 +17719,7 @@
       <c r="W655" s="5"/>
       <c r="X655" s="5"/>
     </row>
-    <row r="656" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:24">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -17717,7 +17745,7 @@
       <c r="W656" s="5"/>
       <c r="X656" s="5"/>
     </row>
-    <row r="657" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:24">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -17743,7 +17771,7 @@
       <c r="W657" s="5"/>
       <c r="X657" s="5"/>
     </row>
-    <row r="658" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:24">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -17769,7 +17797,7 @@
       <c r="W658" s="5"/>
       <c r="X658" s="5"/>
     </row>
-    <row r="659" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:24">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -17795,7 +17823,7 @@
       <c r="W659" s="5"/>
       <c r="X659" s="5"/>
     </row>
-    <row r="660" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:24">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -17821,7 +17849,7 @@
       <c r="W660" s="5"/>
       <c r="X660" s="5"/>
     </row>
-    <row r="661" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:24">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -17847,7 +17875,7 @@
       <c r="W661" s="5"/>
       <c r="X661" s="5"/>
     </row>
-    <row r="662" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:24">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -17873,7 +17901,7 @@
       <c r="W662" s="5"/>
       <c r="X662" s="5"/>
     </row>
-    <row r="663" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:24">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -17899,7 +17927,7 @@
       <c r="W663" s="5"/>
       <c r="X663" s="5"/>
     </row>
-    <row r="664" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:24">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -17925,7 +17953,7 @@
       <c r="W664" s="5"/>
       <c r="X664" s="5"/>
     </row>
-    <row r="665" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:24">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -17951,7 +17979,7 @@
       <c r="W665" s="5"/>
       <c r="X665" s="5"/>
     </row>
-    <row r="666" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:24">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -17977,7 +18005,7 @@
       <c r="W666" s="5"/>
       <c r="X666" s="5"/>
     </row>
-    <row r="667" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:24">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -18003,7 +18031,7 @@
       <c r="W667" s="5"/>
       <c r="X667" s="5"/>
     </row>
-    <row r="668" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:24">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -18029,7 +18057,7 @@
       <c r="W668" s="5"/>
       <c r="X668" s="5"/>
     </row>
-    <row r="669" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:24">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -18055,7 +18083,7 @@
       <c r="W669" s="5"/>
       <c r="X669" s="5"/>
     </row>
-    <row r="670" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:24">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -18081,7 +18109,7 @@
       <c r="W670" s="5"/>
       <c r="X670" s="5"/>
     </row>
-    <row r="671" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:24">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -18107,7 +18135,7 @@
       <c r="W671" s="5"/>
       <c r="X671" s="5"/>
     </row>
-    <row r="672" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:24">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -18133,7 +18161,7 @@
       <c r="W672" s="5"/>
       <c r="X672" s="5"/>
     </row>
-    <row r="673" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:24">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -18159,7 +18187,7 @@
       <c r="W673" s="5"/>
       <c r="X673" s="5"/>
     </row>
-    <row r="674" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:24">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -18185,7 +18213,7 @@
       <c r="W674" s="5"/>
       <c r="X674" s="5"/>
     </row>
-    <row r="675" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:24">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -18211,7 +18239,7 @@
       <c r="W675" s="5"/>
       <c r="X675" s="5"/>
     </row>
-    <row r="676" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:24">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -18237,7 +18265,7 @@
       <c r="W676" s="5"/>
       <c r="X676" s="5"/>
     </row>
-    <row r="677" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:24">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -18263,7 +18291,7 @@
       <c r="W677" s="5"/>
       <c r="X677" s="5"/>
     </row>
-    <row r="678" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:24">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -18289,7 +18317,7 @@
       <c r="W678" s="5"/>
       <c r="X678" s="5"/>
     </row>
-    <row r="679" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:24">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -18315,7 +18343,7 @@
       <c r="W679" s="5"/>
       <c r="X679" s="5"/>
     </row>
-    <row r="680" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:24">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -18341,7 +18369,7 @@
       <c r="W680" s="5"/>
       <c r="X680" s="5"/>
     </row>
-    <row r="681" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:24">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -18367,7 +18395,7 @@
       <c r="W681" s="5"/>
       <c r="X681" s="5"/>
     </row>
-    <row r="682" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:24">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -18393,7 +18421,7 @@
       <c r="W682" s="5"/>
       <c r="X682" s="5"/>
     </row>
-    <row r="683" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:24">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -18419,7 +18447,7 @@
       <c r="W683" s="5"/>
       <c r="X683" s="5"/>
     </row>
-    <row r="684" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:24">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -18445,7 +18473,7 @@
       <c r="W684" s="5"/>
       <c r="X684" s="5"/>
     </row>
-    <row r="685" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:24">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -18471,7 +18499,7 @@
       <c r="W685" s="5"/>
       <c r="X685" s="5"/>
     </row>
-    <row r="686" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:24">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -18497,7 +18525,7 @@
       <c r="W686" s="5"/>
       <c r="X686" s="5"/>
     </row>
-    <row r="687" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:24">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -18523,7 +18551,7 @@
       <c r="W687" s="5"/>
       <c r="X687" s="5"/>
     </row>
-    <row r="688" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:24">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -18549,7 +18577,7 @@
       <c r="W688" s="5"/>
       <c r="X688" s="5"/>
     </row>
-    <row r="689" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:24">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -18575,7 +18603,7 @@
       <c r="W689" s="5"/>
       <c r="X689" s="5"/>
     </row>
-    <row r="690" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:24">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -18601,7 +18629,7 @@
       <c r="W690" s="5"/>
       <c r="X690" s="5"/>
     </row>
-    <row r="691" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:24">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -18627,7 +18655,7 @@
       <c r="W691" s="5"/>
       <c r="X691" s="5"/>
     </row>
-    <row r="692" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:24">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -18653,7 +18681,7 @@
       <c r="W692" s="5"/>
       <c r="X692" s="5"/>
     </row>
-    <row r="693" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:24">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -18679,7 +18707,7 @@
       <c r="W693" s="5"/>
       <c r="X693" s="5"/>
     </row>
-    <row r="694" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:24">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -18705,7 +18733,7 @@
       <c r="W694" s="5"/>
       <c r="X694" s="5"/>
     </row>
-    <row r="695" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:24">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -18731,7 +18759,7 @@
       <c r="W695" s="5"/>
       <c r="X695" s="5"/>
     </row>
-    <row r="696" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:24">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -18757,7 +18785,7 @@
       <c r="W696" s="5"/>
       <c r="X696" s="5"/>
     </row>
-    <row r="697" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:24">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -18783,7 +18811,7 @@
       <c r="W697" s="5"/>
       <c r="X697" s="5"/>
     </row>
-    <row r="698" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:24">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -18809,7 +18837,7 @@
       <c r="W698" s="5"/>
       <c r="X698" s="5"/>
     </row>
-    <row r="699" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:24">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -18835,7 +18863,7 @@
       <c r="W699" s="5"/>
       <c r="X699" s="5"/>
     </row>
-    <row r="700" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:24">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -18861,7 +18889,7 @@
       <c r="W700" s="5"/>
       <c r="X700" s="5"/>
     </row>
-    <row r="701" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:24">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -18887,7 +18915,7 @@
       <c r="W701" s="5"/>
       <c r="X701" s="5"/>
     </row>
-    <row r="702" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:24">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -18913,7 +18941,7 @@
       <c r="W702" s="5"/>
       <c r="X702" s="5"/>
     </row>
-    <row r="703" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:24">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -18939,7 +18967,7 @@
       <c r="W703" s="5"/>
       <c r="X703" s="5"/>
     </row>
-    <row r="704" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:24">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -18965,7 +18993,7 @@
       <c r="W704" s="5"/>
       <c r="X704" s="5"/>
     </row>
-    <row r="705" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:24">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -18991,7 +19019,7 @@
       <c r="W705" s="5"/>
       <c r="X705" s="5"/>
     </row>
-    <row r="706" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:24">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -19017,7 +19045,7 @@
       <c r="W706" s="5"/>
       <c r="X706" s="5"/>
     </row>
-    <row r="707" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:24">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -19043,7 +19071,7 @@
       <c r="W707" s="5"/>
       <c r="X707" s="5"/>
     </row>
-    <row r="708" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:24">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -19069,7 +19097,7 @@
       <c r="W708" s="5"/>
       <c r="X708" s="5"/>
     </row>
-    <row r="709" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:24">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -19095,7 +19123,7 @@
       <c r="W709" s="5"/>
       <c r="X709" s="5"/>
     </row>
-    <row r="710" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:24">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -19121,7 +19149,7 @@
       <c r="W710" s="5"/>
       <c r="X710" s="5"/>
     </row>
-    <row r="711" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:24">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -19147,7 +19175,7 @@
       <c r="W711" s="5"/>
       <c r="X711" s="5"/>
     </row>
-    <row r="712" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:24">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -19173,7 +19201,7 @@
       <c r="W712" s="5"/>
       <c r="X712" s="5"/>
     </row>
-    <row r="713" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:24">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -19199,7 +19227,7 @@
       <c r="W713" s="5"/>
       <c r="X713" s="5"/>
     </row>
-    <row r="714" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:24">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -19225,7 +19253,7 @@
       <c r="W714" s="5"/>
       <c r="X714" s="5"/>
     </row>
-    <row r="715" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:24">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -19251,7 +19279,7 @@
       <c r="W715" s="5"/>
       <c r="X715" s="5"/>
     </row>
-    <row r="716" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:24">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -19277,7 +19305,7 @@
       <c r="W716" s="5"/>
       <c r="X716" s="5"/>
     </row>
-    <row r="717" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:24">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -19303,7 +19331,7 @@
       <c r="W717" s="5"/>
       <c r="X717" s="5"/>
     </row>
-    <row r="718" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:24">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -19329,7 +19357,7 @@
       <c r="W718" s="5"/>
       <c r="X718" s="5"/>
     </row>
-    <row r="719" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:24">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -19355,7 +19383,7 @@
       <c r="W719" s="5"/>
       <c r="X719" s="5"/>
     </row>
-    <row r="720" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:24">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -19381,7 +19409,7 @@
       <c r="W720" s="5"/>
       <c r="X720" s="5"/>
     </row>
-    <row r="721" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:24">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -19407,7 +19435,7 @@
       <c r="W721" s="5"/>
       <c r="X721" s="5"/>
     </row>
-    <row r="722" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:24">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -19433,7 +19461,7 @@
       <c r="W722" s="5"/>
       <c r="X722" s="5"/>
     </row>
-    <row r="723" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:24">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -19459,7 +19487,7 @@
       <c r="W723" s="5"/>
       <c r="X723" s="5"/>
     </row>
-    <row r="724" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:24">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -19485,7 +19513,7 @@
       <c r="W724" s="5"/>
       <c r="X724" s="5"/>
     </row>
-    <row r="725" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:24">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -19511,7 +19539,7 @@
       <c r="W725" s="5"/>
       <c r="X725" s="5"/>
     </row>
-    <row r="726" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:24">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -19537,7 +19565,7 @@
       <c r="W726" s="5"/>
       <c r="X726" s="5"/>
     </row>
-    <row r="727" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:24">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -19563,7 +19591,7 @@
       <c r="W727" s="5"/>
       <c r="X727" s="5"/>
     </row>
-    <row r="728" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:24">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -19589,7 +19617,7 @@
       <c r="W728" s="5"/>
       <c r="X728" s="5"/>
     </row>
-    <row r="729" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:24">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -19615,7 +19643,7 @@
       <c r="W729" s="5"/>
       <c r="X729" s="5"/>
     </row>
-    <row r="730" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:24">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -19641,7 +19669,7 @@
       <c r="W730" s="5"/>
       <c r="X730" s="5"/>
     </row>
-    <row r="731" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:24">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -19667,7 +19695,7 @@
       <c r="W731" s="5"/>
       <c r="X731" s="5"/>
     </row>
-    <row r="732" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:24">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -19693,7 +19721,7 @@
       <c r="W732" s="5"/>
       <c r="X732" s="5"/>
     </row>
-    <row r="733" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:24">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -19719,7 +19747,7 @@
       <c r="W733" s="5"/>
       <c r="X733" s="5"/>
     </row>
-    <row r="734" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:24">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -19745,7 +19773,7 @@
       <c r="W734" s="5"/>
       <c r="X734" s="5"/>
     </row>
-    <row r="735" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:24">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -19771,7 +19799,7 @@
       <c r="W735" s="5"/>
       <c r="X735" s="5"/>
     </row>
-    <row r="736" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:24">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -19797,7 +19825,7 @@
       <c r="W736" s="5"/>
       <c r="X736" s="5"/>
     </row>
-    <row r="737" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:24">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -19823,7 +19851,7 @@
       <c r="W737" s="5"/>
       <c r="X737" s="5"/>
     </row>
-    <row r="738" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:24">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -19849,7 +19877,7 @@
       <c r="W738" s="5"/>
       <c r="X738" s="5"/>
     </row>
-    <row r="739" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:24">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -19875,7 +19903,7 @@
       <c r="W739" s="5"/>
       <c r="X739" s="5"/>
     </row>
-    <row r="740" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:24">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -19901,7 +19929,7 @@
       <c r="W740" s="5"/>
       <c r="X740" s="5"/>
     </row>
-    <row r="741" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:24">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -19927,7 +19955,7 @@
       <c r="W741" s="5"/>
       <c r="X741" s="5"/>
     </row>
-    <row r="742" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:24">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -19953,7 +19981,7 @@
       <c r="W742" s="5"/>
       <c r="X742" s="5"/>
     </row>
-    <row r="743" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:24">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -19979,7 +20007,7 @@
       <c r="W743" s="5"/>
       <c r="X743" s="5"/>
     </row>
-    <row r="744" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:24">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -20005,7 +20033,7 @@
       <c r="W744" s="5"/>
       <c r="X744" s="5"/>
     </row>
-    <row r="745" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:24">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -20031,7 +20059,7 @@
       <c r="W745" s="5"/>
       <c r="X745" s="5"/>
     </row>
-    <row r="746" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:24">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -20057,7 +20085,7 @@
       <c r="W746" s="5"/>
       <c r="X746" s="5"/>
     </row>
-    <row r="747" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:24">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -20083,7 +20111,7 @@
       <c r="W747" s="5"/>
       <c r="X747" s="5"/>
     </row>
-    <row r="748" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:24">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -20109,7 +20137,7 @@
       <c r="W748" s="5"/>
       <c r="X748" s="5"/>
     </row>
-    <row r="749" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:24">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -20135,7 +20163,7 @@
       <c r="W749" s="5"/>
       <c r="X749" s="5"/>
     </row>
-    <row r="750" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:24">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -20161,7 +20189,7 @@
       <c r="W750" s="5"/>
       <c r="X750" s="5"/>
     </row>
-    <row r="751" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:24">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -20187,7 +20215,7 @@
       <c r="W751" s="5"/>
       <c r="X751" s="5"/>
     </row>
-    <row r="752" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:24">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -20213,7 +20241,7 @@
       <c r="W752" s="5"/>
       <c r="X752" s="5"/>
     </row>
-    <row r="753" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:24">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -20239,7 +20267,7 @@
       <c r="W753" s="5"/>
       <c r="X753" s="5"/>
     </row>
-    <row r="754" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:24">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -20265,7 +20293,7 @@
       <c r="W754" s="5"/>
       <c r="X754" s="5"/>
     </row>
-    <row r="755" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:24">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -20291,7 +20319,7 @@
       <c r="W755" s="5"/>
       <c r="X755" s="5"/>
     </row>
-    <row r="756" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:24">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -20317,7 +20345,7 @@
       <c r="W756" s="5"/>
       <c r="X756" s="5"/>
     </row>
-    <row r="757" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:24">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -20343,7 +20371,7 @@
       <c r="W757" s="5"/>
       <c r="X757" s="5"/>
     </row>
-    <row r="758" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:24">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -20369,7 +20397,7 @@
       <c r="W758" s="5"/>
       <c r="X758" s="5"/>
     </row>
-    <row r="759" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:24">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -20395,7 +20423,7 @@
       <c r="W759" s="5"/>
       <c r="X759" s="5"/>
     </row>
-    <row r="760" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:24">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -20421,7 +20449,7 @@
       <c r="W760" s="5"/>
       <c r="X760" s="5"/>
     </row>
-    <row r="761" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:24">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -20447,7 +20475,7 @@
       <c r="W761" s="5"/>
       <c r="X761" s="5"/>
     </row>
-    <row r="762" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:24">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -20473,7 +20501,7 @@
       <c r="W762" s="5"/>
       <c r="X762" s="5"/>
     </row>
-    <row r="763" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:24">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -20499,7 +20527,7 @@
       <c r="W763" s="5"/>
       <c r="X763" s="5"/>
     </row>
-    <row r="764" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:24">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -20525,7 +20553,7 @@
       <c r="W764" s="5"/>
       <c r="X764" s="5"/>
     </row>
-    <row r="765" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:24">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -20551,7 +20579,7 @@
       <c r="W765" s="5"/>
       <c r="X765" s="5"/>
     </row>
-    <row r="766" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:24">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -20577,7 +20605,7 @@
       <c r="W766" s="5"/>
       <c r="X766" s="5"/>
     </row>
-    <row r="767" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:24">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -20603,7 +20631,7 @@
       <c r="W767" s="5"/>
       <c r="X767" s="5"/>
     </row>
-    <row r="768" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:24">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -20629,7 +20657,7 @@
       <c r="W768" s="5"/>
       <c r="X768" s="5"/>
     </row>
-    <row r="769" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:24">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -20655,7 +20683,7 @@
       <c r="W769" s="5"/>
       <c r="X769" s="5"/>
     </row>
-    <row r="770" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:24">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -20681,7 +20709,7 @@
       <c r="W770" s="5"/>
       <c r="X770" s="5"/>
     </row>
-    <row r="771" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:24">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -20707,7 +20735,7 @@
       <c r="W771" s="5"/>
       <c r="X771" s="5"/>
     </row>
-    <row r="772" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:24">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -20733,7 +20761,7 @@
       <c r="W772" s="5"/>
       <c r="X772" s="5"/>
     </row>
-    <row r="773" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:24">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -20759,7 +20787,7 @@
       <c r="W773" s="5"/>
       <c r="X773" s="5"/>
     </row>
-    <row r="774" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:24">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -20785,7 +20813,7 @@
       <c r="W774" s="5"/>
       <c r="X774" s="5"/>
     </row>
-    <row r="775" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:24">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -20811,7 +20839,7 @@
       <c r="W775" s="5"/>
       <c r="X775" s="5"/>
     </row>
-    <row r="776" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:24">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -20837,7 +20865,7 @@
       <c r="W776" s="5"/>
       <c r="X776" s="5"/>
     </row>
-    <row r="777" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:24">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -20863,7 +20891,7 @@
       <c r="W777" s="5"/>
       <c r="X777" s="5"/>
     </row>
-    <row r="778" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:24">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -20889,7 +20917,7 @@
       <c r="W778" s="5"/>
       <c r="X778" s="5"/>
     </row>
-    <row r="779" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:24">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -20915,7 +20943,7 @@
       <c r="W779" s="5"/>
       <c r="X779" s="5"/>
     </row>
-    <row r="780" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:24">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -20941,7 +20969,7 @@
       <c r="W780" s="5"/>
       <c r="X780" s="5"/>
     </row>
-    <row r="781" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:24">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -20967,7 +20995,7 @@
       <c r="W781" s="5"/>
       <c r="X781" s="5"/>
     </row>
-    <row r="782" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:24">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -20993,7 +21021,7 @@
       <c r="W782" s="5"/>
       <c r="X782" s="5"/>
     </row>
-    <row r="783" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:24">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -21019,7 +21047,7 @@
       <c r="W783" s="5"/>
       <c r="X783" s="5"/>
     </row>
-    <row r="784" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:24">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -21045,7 +21073,7 @@
       <c r="W784" s="5"/>
       <c r="X784" s="5"/>
     </row>
-    <row r="785" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:24">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -21071,7 +21099,7 @@
       <c r="W785" s="5"/>
       <c r="X785" s="5"/>
     </row>
-    <row r="786" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:24">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -21097,7 +21125,7 @@
       <c r="W786" s="5"/>
       <c r="X786" s="5"/>
     </row>
-    <row r="787" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:24">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -21123,7 +21151,7 @@
       <c r="W787" s="5"/>
       <c r="X787" s="5"/>
     </row>
-    <row r="788" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:24">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -21149,7 +21177,7 @@
       <c r="W788" s="5"/>
       <c r="X788" s="5"/>
     </row>
-    <row r="789" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:24">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -21175,7 +21203,7 @@
       <c r="W789" s="5"/>
       <c r="X789" s="5"/>
     </row>
-    <row r="790" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:24">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -21201,7 +21229,7 @@
       <c r="W790" s="5"/>
       <c r="X790" s="5"/>
     </row>
-    <row r="791" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:24">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -21227,7 +21255,7 @@
       <c r="W791" s="5"/>
       <c r="X791" s="5"/>
     </row>
-    <row r="792" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:24">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -21253,7 +21281,7 @@
       <c r="W792" s="5"/>
       <c r="X792" s="5"/>
     </row>
-    <row r="793" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:24">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -21279,7 +21307,7 @@
       <c r="W793" s="5"/>
       <c r="X793" s="5"/>
     </row>
-    <row r="794" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:24">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -21305,7 +21333,7 @@
       <c r="W794" s="5"/>
       <c r="X794" s="5"/>
     </row>
-    <row r="795" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:24">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -21331,7 +21359,7 @@
       <c r="W795" s="5"/>
       <c r="X795" s="5"/>
     </row>
-    <row r="796" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:24">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -21357,7 +21385,7 @@
       <c r="W796" s="5"/>
       <c r="X796" s="5"/>
     </row>
-    <row r="797" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:24">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -21383,7 +21411,7 @@
       <c r="W797" s="5"/>
       <c r="X797" s="5"/>
     </row>
-    <row r="798" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:24">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -21409,7 +21437,7 @@
       <c r="W798" s="5"/>
       <c r="X798" s="5"/>
     </row>
-    <row r="799" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:24">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -21435,7 +21463,7 @@
       <c r="W799" s="5"/>
       <c r="X799" s="5"/>
     </row>
-    <row r="800" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:24">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -21461,7 +21489,7 @@
       <c r="W800" s="5"/>
       <c r="X800" s="5"/>
     </row>
-    <row r="801" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:24">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -21487,7 +21515,7 @@
       <c r="W801" s="5"/>
       <c r="X801" s="5"/>
     </row>
-    <row r="802" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:24">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -21513,7 +21541,7 @@
       <c r="W802" s="5"/>
       <c r="X802" s="5"/>
     </row>
-    <row r="803" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:24">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -21539,7 +21567,7 @@
       <c r="W803" s="5"/>
       <c r="X803" s="5"/>
     </row>
-    <row r="804" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:24">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -21565,7 +21593,7 @@
       <c r="W804" s="5"/>
       <c r="X804" s="5"/>
     </row>
-    <row r="805" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:24">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -21591,7 +21619,7 @@
       <c r="W805" s="5"/>
       <c r="X805" s="5"/>
     </row>
-    <row r="806" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:24">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -21617,7 +21645,7 @@
       <c r="W806" s="5"/>
       <c r="X806" s="5"/>
     </row>
-    <row r="807" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:24">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -21643,7 +21671,7 @@
       <c r="W807" s="5"/>
       <c r="X807" s="5"/>
     </row>
-    <row r="808" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:24">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -21669,7 +21697,7 @@
       <c r="W808" s="5"/>
       <c r="X808" s="5"/>
     </row>
-    <row r="809" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:24">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -21695,7 +21723,7 @@
       <c r="W809" s="5"/>
       <c r="X809" s="5"/>
     </row>
-    <row r="810" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:24">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -21721,7 +21749,7 @@
       <c r="W810" s="5"/>
       <c r="X810" s="5"/>
     </row>
-    <row r="811" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:24">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -21747,7 +21775,7 @@
       <c r="W811" s="5"/>
       <c r="X811" s="5"/>
     </row>
-    <row r="812" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:24">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -21773,7 +21801,7 @@
       <c r="W812" s="5"/>
       <c r="X812" s="5"/>
     </row>
-    <row r="813" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:24">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -21799,7 +21827,7 @@
       <c r="W813" s="5"/>
       <c r="X813" s="5"/>
     </row>
-    <row r="814" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:24">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -21825,7 +21853,7 @@
       <c r="W814" s="5"/>
       <c r="X814" s="5"/>
     </row>
-    <row r="815" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:24">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -21851,7 +21879,7 @@
       <c r="W815" s="5"/>
       <c r="X815" s="5"/>
     </row>
-    <row r="816" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:24">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -21877,7 +21905,7 @@
       <c r="W816" s="5"/>
       <c r="X816" s="5"/>
     </row>
-    <row r="817" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:24">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -21903,7 +21931,7 @@
       <c r="W817" s="5"/>
       <c r="X817" s="5"/>
     </row>
-    <row r="818" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:24">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -21929,7 +21957,7 @@
       <c r="W818" s="5"/>
       <c r="X818" s="5"/>
     </row>
-    <row r="819" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:24">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -21955,7 +21983,7 @@
       <c r="W819" s="5"/>
       <c r="X819" s="5"/>
     </row>
-    <row r="820" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:24">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -21981,7 +22009,7 @@
       <c r="W820" s="5"/>
       <c r="X820" s="5"/>
     </row>
-    <row r="821" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:24">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -22007,7 +22035,7 @@
       <c r="W821" s="5"/>
       <c r="X821" s="5"/>
     </row>
-    <row r="822" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:24">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -22033,7 +22061,7 @@
       <c r="W822" s="5"/>
       <c r="X822" s="5"/>
     </row>
-    <row r="823" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:24">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -22059,7 +22087,7 @@
       <c r="W823" s="5"/>
       <c r="X823" s="5"/>
     </row>
-    <row r="824" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:24">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -22085,7 +22113,7 @@
       <c r="W824" s="5"/>
       <c r="X824" s="5"/>
     </row>
-    <row r="825" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:24">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -22111,7 +22139,7 @@
       <c r="W825" s="5"/>
       <c r="X825" s="5"/>
     </row>
-    <row r="826" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:24">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -22137,7 +22165,7 @@
       <c r="W826" s="5"/>
       <c r="X826" s="5"/>
     </row>
-    <row r="827" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:24">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -22163,7 +22191,7 @@
       <c r="W827" s="5"/>
       <c r="X827" s="5"/>
     </row>
-    <row r="828" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:24">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -22189,7 +22217,7 @@
       <c r="W828" s="5"/>
       <c r="X828" s="5"/>
     </row>
-    <row r="829" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:24">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -22215,7 +22243,7 @@
       <c r="W829" s="5"/>
       <c r="X829" s="5"/>
     </row>
-    <row r="830" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:24">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -22241,7 +22269,7 @@
       <c r="W830" s="5"/>
       <c r="X830" s="5"/>
     </row>
-    <row r="831" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:24">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -22267,7 +22295,7 @@
       <c r="W831" s="5"/>
       <c r="X831" s="5"/>
     </row>
-    <row r="832" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:24">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -22293,7 +22321,7 @@
       <c r="W832" s="5"/>
       <c r="X832" s="5"/>
     </row>
-    <row r="833" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:24">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -22319,7 +22347,7 @@
       <c r="W833" s="5"/>
       <c r="X833" s="5"/>
     </row>
-    <row r="834" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:24">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -22345,7 +22373,7 @@
       <c r="W834" s="5"/>
       <c r="X834" s="5"/>
     </row>
-    <row r="835" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:24">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -22371,7 +22399,7 @@
       <c r="W835" s="5"/>
       <c r="X835" s="5"/>
     </row>
-    <row r="836" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:24">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -22397,7 +22425,7 @@
       <c r="W836" s="5"/>
       <c r="X836" s="5"/>
     </row>
-    <row r="837" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:24">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -22423,7 +22451,7 @@
       <c r="W837" s="5"/>
       <c r="X837" s="5"/>
     </row>
-    <row r="838" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:24">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -22449,7 +22477,7 @@
       <c r="W838" s="5"/>
       <c r="X838" s="5"/>
     </row>
-    <row r="839" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:24">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -22475,7 +22503,7 @@
       <c r="W839" s="5"/>
       <c r="X839" s="5"/>
     </row>
-    <row r="840" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:24">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -22501,7 +22529,7 @@
       <c r="W840" s="5"/>
       <c r="X840" s="5"/>
     </row>
-    <row r="841" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:24">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -22527,7 +22555,7 @@
       <c r="W841" s="5"/>
       <c r="X841" s="5"/>
     </row>
-    <row r="842" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:24">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -22553,7 +22581,7 @@
       <c r="W842" s="5"/>
       <c r="X842" s="5"/>
     </row>
-    <row r="843" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:24">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -22579,7 +22607,7 @@
       <c r="W843" s="5"/>
       <c r="X843" s="5"/>
     </row>
-    <row r="844" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:24">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -22605,7 +22633,7 @@
       <c r="W844" s="5"/>
       <c r="X844" s="5"/>
     </row>
-    <row r="845" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:24">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -22631,7 +22659,7 @@
       <c r="W845" s="5"/>
       <c r="X845" s="5"/>
     </row>
-    <row r="846" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:24">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -22657,7 +22685,7 @@
       <c r="W846" s="5"/>
       <c r="X846" s="5"/>
     </row>
-    <row r="847" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:24">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -22683,7 +22711,7 @@
       <c r="W847" s="5"/>
       <c r="X847" s="5"/>
     </row>
-    <row r="848" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:24">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -22709,7 +22737,7 @@
       <c r="W848" s="5"/>
       <c r="X848" s="5"/>
     </row>
-    <row r="849" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:24">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -22735,7 +22763,7 @@
       <c r="W849" s="5"/>
       <c r="X849" s="5"/>
     </row>
-    <row r="850" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:24">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -22761,7 +22789,7 @@
       <c r="W850" s="5"/>
       <c r="X850" s="5"/>
     </row>
-    <row r="851" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:24">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -22787,7 +22815,7 @@
       <c r="W851" s="5"/>
       <c r="X851" s="5"/>
     </row>
-    <row r="852" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:24">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -22813,7 +22841,7 @@
       <c r="W852" s="5"/>
       <c r="X852" s="5"/>
     </row>
-    <row r="853" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:24">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -22839,7 +22867,7 @@
       <c r="W853" s="5"/>
       <c r="X853" s="5"/>
     </row>
-    <row r="854" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:24">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -22865,7 +22893,7 @@
       <c r="W854" s="5"/>
       <c r="X854" s="5"/>
     </row>
-    <row r="855" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:24">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -22891,7 +22919,7 @@
       <c r="W855" s="5"/>
       <c r="X855" s="5"/>
     </row>
-    <row r="856" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:24">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -22917,7 +22945,7 @@
       <c r="W856" s="5"/>
       <c r="X856" s="5"/>
     </row>
-    <row r="857" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:24">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -22943,7 +22971,7 @@
       <c r="W857" s="5"/>
       <c r="X857" s="5"/>
     </row>
-    <row r="858" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:24">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -22969,7 +22997,7 @@
       <c r="W858" s="5"/>
       <c r="X858" s="5"/>
     </row>
-    <row r="859" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:24">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -22995,7 +23023,7 @@
       <c r="W859" s="5"/>
       <c r="X859" s="5"/>
     </row>
-    <row r="860" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:24">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -23021,7 +23049,7 @@
       <c r="W860" s="5"/>
       <c r="X860" s="5"/>
     </row>
-    <row r="861" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:24">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -23047,7 +23075,7 @@
       <c r="W861" s="5"/>
       <c r="X861" s="5"/>
     </row>
-    <row r="862" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:24">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -23073,7 +23101,7 @@
       <c r="W862" s="5"/>
       <c r="X862" s="5"/>
     </row>
-    <row r="863" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:24">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -23099,7 +23127,7 @@
       <c r="W863" s="5"/>
       <c r="X863" s="5"/>
     </row>
-    <row r="864" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:24">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -23125,7 +23153,7 @@
       <c r="W864" s="5"/>
       <c r="X864" s="5"/>
     </row>
-    <row r="865" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:24">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -23151,7 +23179,7 @@
       <c r="W865" s="5"/>
       <c r="X865" s="5"/>
     </row>
-    <row r="866" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:24">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -23177,7 +23205,7 @@
       <c r="W866" s="5"/>
       <c r="X866" s="5"/>
     </row>
-    <row r="867" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:24">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -23203,7 +23231,7 @@
       <c r="W867" s="5"/>
       <c r="X867" s="5"/>
     </row>
-    <row r="868" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:24">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -23229,7 +23257,7 @@
       <c r="W868" s="5"/>
       <c r="X868" s="5"/>
     </row>
-    <row r="869" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:24">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -23255,7 +23283,7 @@
       <c r="W869" s="5"/>
       <c r="X869" s="5"/>
     </row>
-    <row r="870" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:24">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -23281,7 +23309,7 @@
       <c r="W870" s="5"/>
       <c r="X870" s="5"/>
     </row>
-    <row r="871" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:24">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -23307,7 +23335,7 @@
       <c r="W871" s="5"/>
       <c r="X871" s="5"/>
     </row>
-    <row r="872" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:24">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -23333,7 +23361,7 @@
       <c r="W872" s="5"/>
       <c r="X872" s="5"/>
     </row>
-    <row r="873" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:24">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -23359,7 +23387,7 @@
       <c r="W873" s="5"/>
       <c r="X873" s="5"/>
     </row>
-    <row r="874" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:24">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -23385,7 +23413,7 @@
       <c r="W874" s="5"/>
       <c r="X874" s="5"/>
     </row>
-    <row r="875" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:24">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -23411,7 +23439,7 @@
       <c r="W875" s="5"/>
       <c r="X875" s="5"/>
     </row>
-    <row r="876" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:24">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -23437,7 +23465,7 @@
       <c r="W876" s="5"/>
       <c r="X876" s="5"/>
     </row>
-    <row r="877" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:24">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -23463,7 +23491,7 @@
       <c r="W877" s="5"/>
       <c r="X877" s="5"/>
     </row>
-    <row r="878" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:24">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -23489,7 +23517,7 @@
       <c r="W878" s="5"/>
       <c r="X878" s="5"/>
     </row>
-    <row r="879" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:24">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -23515,7 +23543,7 @@
       <c r="W879" s="5"/>
       <c r="X879" s="5"/>
     </row>
-    <row r="880" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:24">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -23541,7 +23569,7 @@
       <c r="W880" s="5"/>
       <c r="X880" s="5"/>
     </row>
-    <row r="881" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:24">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -23567,7 +23595,7 @@
       <c r="W881" s="5"/>
       <c r="X881" s="5"/>
     </row>
-    <row r="882" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:24">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -23593,7 +23621,7 @@
       <c r="W882" s="5"/>
       <c r="X882" s="5"/>
     </row>
-    <row r="883" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:24">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -23619,7 +23647,7 @@
       <c r="W883" s="5"/>
       <c r="X883" s="5"/>
     </row>
-    <row r="884" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:24">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -23645,7 +23673,7 @@
       <c r="W884" s="5"/>
       <c r="X884" s="5"/>
     </row>
-    <row r="885" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:24">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -23671,7 +23699,7 @@
       <c r="W885" s="5"/>
       <c r="X885" s="5"/>
     </row>
-    <row r="886" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:24">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -23697,7 +23725,7 @@
       <c r="W886" s="5"/>
       <c r="X886" s="5"/>
     </row>
-    <row r="887" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:24">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -23723,7 +23751,7 @@
       <c r="W887" s="5"/>
       <c r="X887" s="5"/>
     </row>
-    <row r="888" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:24">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -23749,7 +23777,7 @@
       <c r="W888" s="5"/>
       <c r="X888" s="5"/>
     </row>
-    <row r="889" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:24">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -23775,7 +23803,7 @@
       <c r="W889" s="5"/>
       <c r="X889" s="5"/>
     </row>
-    <row r="890" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:24">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -23801,7 +23829,7 @@
       <c r="W890" s="5"/>
       <c r="X890" s="5"/>
     </row>
-    <row r="891" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:24">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -23827,7 +23855,7 @@
       <c r="W891" s="5"/>
       <c r="X891" s="5"/>
     </row>
-    <row r="892" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:24">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -23853,7 +23881,7 @@
       <c r="W892" s="5"/>
       <c r="X892" s="5"/>
     </row>
-    <row r="893" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:24">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -23879,7 +23907,7 @@
       <c r="W893" s="5"/>
       <c r="X893" s="5"/>
     </row>
-    <row r="894" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:24">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -23905,7 +23933,7 @@
       <c r="W894" s="5"/>
       <c r="X894" s="5"/>
     </row>
-    <row r="895" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:24">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -23931,7 +23959,7 @@
       <c r="W895" s="5"/>
       <c r="X895" s="5"/>
     </row>
-    <row r="896" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:24">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -23957,7 +23985,7 @@
       <c r="W896" s="5"/>
       <c r="X896" s="5"/>
     </row>
-    <row r="897" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:24">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -23983,7 +24011,7 @@
       <c r="W897" s="5"/>
       <c r="X897" s="5"/>
     </row>
-    <row r="898" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:24">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -24009,7 +24037,7 @@
       <c r="W898" s="5"/>
       <c r="X898" s="5"/>
     </row>
-    <row r="899" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:24">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -24035,7 +24063,7 @@
       <c r="W899" s="5"/>
       <c r="X899" s="5"/>
     </row>
-    <row r="900" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:24">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -24061,7 +24089,7 @@
       <c r="W900" s="5"/>
       <c r="X900" s="5"/>
     </row>
-    <row r="901" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:24">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -24087,7 +24115,7 @@
       <c r="W901" s="5"/>
       <c r="X901" s="5"/>
     </row>
-    <row r="902" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:24">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -24113,7 +24141,7 @@
       <c r="W902" s="5"/>
       <c r="X902" s="5"/>
     </row>
-    <row r="903" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:24">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -24139,7 +24167,7 @@
       <c r="W903" s="5"/>
       <c r="X903" s="5"/>
     </row>
-    <row r="904" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:24">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -24165,7 +24193,7 @@
       <c r="W904" s="5"/>
       <c r="X904" s="5"/>
     </row>
-    <row r="905" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:24">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -24191,7 +24219,7 @@
       <c r="W905" s="5"/>
       <c r="X905" s="5"/>
     </row>
-    <row r="906" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:24">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -24217,7 +24245,7 @@
       <c r="W906" s="5"/>
       <c r="X906" s="5"/>
     </row>
-    <row r="907" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:24">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -24243,7 +24271,7 @@
       <c r="W907" s="5"/>
       <c r="X907" s="5"/>
     </row>
-    <row r="908" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:24">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -24269,7 +24297,7 @@
       <c r="W908" s="5"/>
       <c r="X908" s="5"/>
     </row>
-    <row r="909" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:24">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -24295,7 +24323,7 @@
       <c r="W909" s="5"/>
       <c r="X909" s="5"/>
     </row>
-    <row r="910" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:24">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -24321,7 +24349,7 @@
       <c r="W910" s="5"/>
       <c r="X910" s="5"/>
     </row>
-    <row r="911" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:24">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -24347,7 +24375,7 @@
       <c r="W911" s="5"/>
       <c r="X911" s="5"/>
     </row>
-    <row r="912" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:24">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -24373,7 +24401,7 @@
       <c r="W912" s="5"/>
       <c r="X912" s="5"/>
     </row>
-    <row r="913" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:24">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -24399,7 +24427,7 @@
       <c r="W913" s="5"/>
       <c r="X913" s="5"/>
     </row>
-    <row r="914" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:24">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -24425,7 +24453,7 @@
       <c r="W914" s="5"/>
       <c r="X914" s="5"/>
     </row>
-    <row r="915" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:24">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -24451,7 +24479,7 @@
       <c r="W915" s="5"/>
       <c r="X915" s="5"/>
     </row>
-    <row r="916" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:24">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -24477,7 +24505,7 @@
       <c r="W916" s="5"/>
       <c r="X916" s="5"/>
     </row>
-    <row r="917" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:24">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -24503,7 +24531,7 @@
       <c r="W917" s="5"/>
       <c r="X917" s="5"/>
     </row>
-    <row r="918" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:24">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -24529,7 +24557,7 @@
       <c r="W918" s="5"/>
       <c r="X918" s="5"/>
     </row>
-    <row r="919" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:24">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -24555,7 +24583,7 @@
       <c r="W919" s="5"/>
       <c r="X919" s="5"/>
     </row>
-    <row r="920" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:24">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -24581,7 +24609,7 @@
       <c r="W920" s="5"/>
       <c r="X920" s="5"/>
     </row>
-    <row r="921" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:24">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -24607,7 +24635,7 @@
       <c r="W921" s="5"/>
       <c r="X921" s="5"/>
     </row>
-    <row r="922" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:24">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -24633,7 +24661,7 @@
       <c r="W922" s="5"/>
       <c r="X922" s="5"/>
     </row>
-    <row r="923" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:24">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -24659,7 +24687,7 @@
       <c r="W923" s="5"/>
       <c r="X923" s="5"/>
     </row>
-    <row r="924" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:24">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -24685,7 +24713,7 @@
       <c r="W924" s="5"/>
       <c r="X924" s="5"/>
     </row>
-    <row r="925" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:24">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -24711,7 +24739,7 @@
       <c r="W925" s="5"/>
       <c r="X925" s="5"/>
     </row>
-    <row r="926" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:24">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -24737,7 +24765,7 @@
       <c r="W926" s="5"/>
       <c r="X926" s="5"/>
     </row>
-    <row r="927" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:24">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -24763,7 +24791,7 @@
       <c r="W927" s="5"/>
       <c r="X927" s="5"/>
     </row>
-    <row r="928" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:24">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -24789,7 +24817,7 @@
       <c r="W928" s="5"/>
       <c r="X928" s="5"/>
     </row>
-    <row r="929" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:24">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -24815,7 +24843,7 @@
       <c r="W929" s="5"/>
       <c r="X929" s="5"/>
     </row>
-    <row r="930" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:24">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -24841,7 +24869,7 @@
       <c r="W930" s="5"/>
       <c r="X930" s="5"/>
     </row>
-    <row r="931" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:24">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -24867,7 +24895,7 @@
       <c r="W931" s="5"/>
       <c r="X931" s="5"/>
     </row>
-    <row r="932" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:24">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -24893,7 +24921,7 @@
       <c r="W932" s="5"/>
       <c r="X932" s="5"/>
     </row>
-    <row r="933" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:24">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -24919,7 +24947,7 @@
       <c r="W933" s="5"/>
       <c r="X933" s="5"/>
     </row>
-    <row r="934" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:24">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -24945,7 +24973,7 @@
       <c r="W934" s="5"/>
       <c r="X934" s="5"/>
     </row>
-    <row r="935" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:24">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -24971,7 +24999,7 @@
       <c r="W935" s="5"/>
       <c r="X935" s="5"/>
     </row>
-    <row r="936" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:24">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -24997,7 +25025,7 @@
       <c r="W936" s="5"/>
       <c r="X936" s="5"/>
     </row>
-    <row r="937" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:24">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -25023,7 +25051,7 @@
       <c r="W937" s="5"/>
       <c r="X937" s="5"/>
     </row>
-    <row r="938" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:24">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -25049,7 +25077,7 @@
       <c r="W938" s="5"/>
       <c r="X938" s="5"/>
     </row>
-    <row r="939" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:24">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -25075,7 +25103,7 @@
       <c r="W939" s="5"/>
       <c r="X939" s="5"/>
     </row>
-    <row r="940" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:24">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -25101,7 +25129,7 @@
       <c r="W940" s="5"/>
       <c r="X940" s="5"/>
     </row>
-    <row r="941" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:24">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -25127,7 +25155,7 @@
       <c r="W941" s="5"/>
       <c r="X941" s="5"/>
     </row>
-    <row r="942" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:24">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -25153,7 +25181,7 @@
       <c r="W942" s="5"/>
       <c r="X942" s="5"/>
     </row>
-    <row r="943" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:24">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -25179,7 +25207,7 @@
       <c r="W943" s="5"/>
       <c r="X943" s="5"/>
     </row>
-    <row r="944" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:24">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -25205,7 +25233,7 @@
       <c r="W944" s="5"/>
       <c r="X944" s="5"/>
     </row>
-    <row r="945" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:24">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -25231,7 +25259,7 @@
       <c r="W945" s="5"/>
       <c r="X945" s="5"/>
     </row>
-    <row r="946" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:24">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -25257,7 +25285,7 @@
       <c r="W946" s="5"/>
       <c r="X946" s="5"/>
     </row>
-    <row r="947" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:24">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -25283,7 +25311,7 @@
       <c r="W947" s="5"/>
       <c r="X947" s="5"/>
     </row>
-    <row r="948" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:24">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -25309,7 +25337,7 @@
       <c r="W948" s="5"/>
       <c r="X948" s="5"/>
     </row>
-    <row r="949" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:24">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -25335,7 +25363,7 @@
       <c r="W949" s="5"/>
       <c r="X949" s="5"/>
     </row>
-    <row r="950" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:24">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -25361,7 +25389,7 @@
       <c r="W950" s="5"/>
       <c r="X950" s="5"/>
     </row>
-    <row r="951" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:24">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -25387,7 +25415,7 @@
       <c r="W951" s="5"/>
       <c r="X951" s="5"/>
     </row>
-    <row r="952" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:24">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -25413,7 +25441,7 @@
       <c r="W952" s="5"/>
       <c r="X952" s="5"/>
     </row>
-    <row r="953" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:24">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -25439,7 +25467,7 @@
       <c r="W953" s="5"/>
       <c r="X953" s="5"/>
     </row>
-    <row r="954" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:24">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -25465,7 +25493,7 @@
       <c r="W954" s="5"/>
       <c r="X954" s="5"/>
     </row>
-    <row r="955" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:24">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -25491,7 +25519,7 @@
       <c r="W955" s="5"/>
       <c r="X955" s="5"/>
     </row>
-    <row r="956" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:24">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -25517,7 +25545,7 @@
       <c r="W956" s="5"/>
       <c r="X956" s="5"/>
     </row>
-    <row r="957" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:24">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -25543,7 +25571,7 @@
       <c r="W957" s="5"/>
       <c r="X957" s="5"/>
     </row>
-    <row r="958" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:24">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -25569,7 +25597,7 @@
       <c r="W958" s="5"/>
       <c r="X958" s="5"/>
     </row>
-    <row r="959" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:24">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -25595,7 +25623,7 @@
       <c r="W959" s="5"/>
       <c r="X959" s="5"/>
     </row>
-    <row r="960" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:24">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -25621,7 +25649,7 @@
       <c r="W960" s="5"/>
       <c r="X960" s="5"/>
     </row>
-    <row r="961" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:24">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -25647,7 +25675,7 @@
       <c r="W961" s="5"/>
       <c r="X961" s="5"/>
     </row>
-    <row r="962" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:24">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -25673,7 +25701,7 @@
       <c r="W962" s="5"/>
       <c r="X962" s="5"/>
     </row>
-    <row r="963" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:24">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -25699,7 +25727,7 @@
       <c r="W963" s="5"/>
       <c r="X963" s="5"/>
     </row>
-    <row r="964" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:24">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -25725,7 +25753,7 @@
       <c r="W964" s="5"/>
       <c r="X964" s="5"/>
     </row>
-    <row r="965" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:24">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -25751,7 +25779,7 @@
       <c r="W965" s="5"/>
       <c r="X965" s="5"/>
     </row>
-    <row r="966" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:24">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -25777,7 +25805,7 @@
       <c r="W966" s="5"/>
       <c r="X966" s="5"/>
     </row>
-    <row r="967" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:24">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -25803,7 +25831,7 @@
       <c r="W967" s="5"/>
       <c r="X967" s="5"/>
     </row>
-    <row r="968" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:24">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -25829,7 +25857,7 @@
       <c r="W968" s="5"/>
       <c r="X968" s="5"/>
     </row>
-    <row r="969" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:24">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -25855,7 +25883,7 @@
       <c r="W969" s="5"/>
       <c r="X969" s="5"/>
     </row>
-    <row r="970" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:24">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -25881,7 +25909,7 @@
       <c r="W970" s="5"/>
       <c r="X970" s="5"/>
     </row>
-    <row r="971" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:24">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -25907,7 +25935,7 @@
       <c r="W971" s="5"/>
       <c r="X971" s="5"/>
     </row>
-    <row r="972" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:24">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -25933,7 +25961,7 @@
       <c r="W972" s="5"/>
       <c r="X972" s="5"/>
     </row>
-    <row r="973" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:24">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -25959,7 +25987,7 @@
       <c r="W973" s="5"/>
       <c r="X973" s="5"/>
     </row>
-    <row r="974" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:24">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -25985,7 +26013,7 @@
       <c r="W974" s="5"/>
       <c r="X974" s="5"/>
     </row>
-    <row r="975" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:24">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -26011,7 +26039,7 @@
       <c r="W975" s="5"/>
       <c r="X975" s="5"/>
     </row>
-    <row r="976" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:24">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -26037,7 +26065,7 @@
       <c r="W976" s="5"/>
       <c r="X976" s="5"/>
     </row>
-    <row r="977" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:24">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -26063,7 +26091,7 @@
       <c r="W977" s="5"/>
       <c r="X977" s="5"/>
     </row>
-    <row r="978" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:24">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -26089,7 +26117,7 @@
       <c r="W978" s="5"/>
       <c r="X978" s="5"/>
     </row>
-    <row r="979" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:24">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -26115,7 +26143,7 @@
       <c r="W979" s="5"/>
       <c r="X979" s="5"/>
     </row>
-    <row r="980" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:24">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -26141,7 +26169,7 @@
       <c r="W980" s="5"/>
       <c r="X980" s="5"/>
     </row>
-    <row r="981" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:24">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -26167,7 +26195,7 @@
       <c r="W981" s="5"/>
       <c r="X981" s="5"/>
     </row>
-    <row r="982" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:24">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -26193,7 +26221,7 @@
       <c r="W982" s="5"/>
       <c r="X982" s="5"/>
     </row>
-    <row r="983" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:24">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -26219,7 +26247,7 @@
       <c r="W983" s="5"/>
       <c r="X983" s="5"/>
     </row>
-    <row r="984" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:24">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -26245,7 +26273,7 @@
       <c r="W984" s="5"/>
       <c r="X984" s="5"/>
     </row>
-    <row r="985" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:24">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -26271,7 +26299,7 @@
       <c r="W985" s="5"/>
       <c r="X985" s="5"/>
     </row>
-    <row r="986" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:24">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -26297,7 +26325,7 @@
       <c r="W986" s="5"/>
       <c r="X986" s="5"/>
     </row>
-    <row r="987" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:24">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -26323,7 +26351,7 @@
       <c r="W987" s="5"/>
       <c r="X987" s="5"/>
     </row>
-    <row r="988" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:24">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -26349,7 +26377,7 @@
       <c r="W988" s="5"/>
       <c r="X988" s="5"/>
     </row>
-    <row r="989" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:24">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -26375,7 +26403,7 @@
       <c r="W989" s="5"/>
       <c r="X989" s="5"/>
     </row>
-    <row r="990" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:24">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -26401,7 +26429,7 @@
       <c r="W990" s="5"/>
       <c r="X990" s="5"/>
     </row>
-    <row r="991" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:24">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -26427,7 +26455,7 @@
       <c r="W991" s="5"/>
       <c r="X991" s="5"/>
     </row>
-    <row r="992" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:24">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -26453,7 +26481,7 @@
       <c r="W992" s="5"/>
       <c r="X992" s="5"/>
     </row>
-    <row r="993" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:24">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -26479,7 +26507,7 @@
       <c r="W993" s="5"/>
       <c r="X993" s="5"/>
     </row>
-    <row r="994" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:24">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -26505,7 +26533,7 @@
       <c r="W994" s="5"/>
       <c r="X994" s="5"/>
     </row>
-    <row r="995" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:24">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -26531,7 +26559,7 @@
       <c r="W995" s="5"/>
       <c r="X995" s="5"/>
     </row>
-    <row r="996" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:24">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -26557,7 +26585,7 @@
       <c r="W996" s="5"/>
       <c r="X996" s="5"/>
     </row>
-    <row r="997" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:24">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -26583,7 +26611,7 @@
       <c r="W997" s="5"/>
       <c r="X997" s="5"/>
     </row>
-    <row r="998" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:24">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -26609,7 +26637,7 @@
       <c r="W998" s="5"/>
       <c r="X998" s="5"/>
     </row>
-    <row r="999" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:24">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -26635,7 +26663,7 @@
       <c r="W999" s="5"/>
       <c r="X999" s="5"/>
     </row>
-    <row r="1000" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:24">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -26661,7 +26689,7 @@
       <c r="W1000" s="5"/>
       <c r="X1000" s="5"/>
     </row>
-    <row r="1001" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:24">
       <c r="A1001" s="5"/>
       <c r="B1001" s="5"/>
       <c r="C1001" s="5"/>
@@ -26689,5 +26717,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>